--- a/data/Vulnerability/Table_D3_Costs_V1.0.1.xlsx
+++ b/data/Vulnerability/Table_D3_Costs_V1.0.1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FB4889-1A86-4642-BB5C-932C3B63199D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A60512-13C8-4E2D-AE50-88294A3A6FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="360">
   <si>
     <t>Infrastructure description</t>
   </si>
@@ -1576,6 +1576,9 @@
       </rPr>
       <t>Please let us know, so we can improve the database.</t>
     </r>
+  </si>
+  <si>
+    <t>cost ID number</t>
   </si>
 </sst>
 </file>
@@ -2992,10 +2995,10 @@
   <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3014,7 +3017,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>359</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>

--- a/data/Vulnerability/Table_D3_Costs_V1.0.1.xlsx
+++ b/data/Vulnerability/Table_D3_Costs_V1.0.1.xlsx
@@ -3,17 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A60512-13C8-4E2D-AE50-88294A3A6FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814ABBAD-8AF5-4B81-AE9B-109AB020615C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="2" r:id="rId1"/>
-    <sheet name="Cost_Database" sheetId="4" r:id="rId2"/>
-    <sheet name="Reference_List" sheetId="3" r:id="rId3"/>
+    <sheet name="Cost_Database_Conversions" sheetId="4" r:id="rId2"/>
+    <sheet name="Cost_Database_Original" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Reference_List" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cost_Database!$B$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cost_Database_Conversions!$B$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Cost_Database_Original!$B$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="362">
   <si>
     <t>Infrastructure description</t>
   </si>
@@ -1580,6 +1583,12 @@
   <si>
     <t>cost ID number</t>
   </si>
+  <si>
+    <t>We use construction costs derived from literature for infrastructure types that lack specific data on maximum damages that can be used directly for risk assessments. Hereby, we assume that the costs for reconstruction are 60% of the construction costs (e.g., Huizinga et al., 2017).</t>
+  </si>
+  <si>
+    <t>60*construction costs</t>
+  </si>
 </sst>
 </file>
 
@@ -1620,12 +1629,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -1720,7 +1735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1761,6 +1776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2992,13 +3008,6873 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF54DA9-9DBA-41E5-8892-C2F99E6F867D}">
+  <dimension ref="A1:K181"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="78.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="72.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D1" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I3)), ISNUMBER(SEARCH("first costs", $I3))), ISNUMBER(SEARCH("maximum damage", $I3))=FALSE), Cost_Database_Original!D2*0.6, Cost_Database_Original!D2)</f>
+        <v>98.968068154203806</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I3)), ISNUMBER(SEARCH("first costs", $I3))), ISNUMBER(SEARCH("maximum damage", $I3))=FALSE), Cost_Database_Original!E2*0.6, Cost_Database_Original!E2)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I3)), ISNUMBER(SEARCH("first costs", $I3))), ISNUMBER(SEARCH("maximum damage", $I3))=FALSE), Cost_Database_Original!F2*0.6, Cost_Database_Original!F2)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I4)), ISNUMBER(SEARCH("first costs", $I4))), ISNUMBER(SEARCH("maximum damage", $I4))=FALSE), Cost_Database_Original!D3*0.6, Cost_Database_Original!D3)</f>
+        <v>118.72443562974235</v>
+      </c>
+      <c r="E4" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I4)), ISNUMBER(SEARCH("first costs", $I4))), ISNUMBER(SEARCH("maximum damage", $I4))=FALSE), Cost_Database_Original!E3*0.6, Cost_Database_Original!E3)</f>
+        <v>108.83073266059715</v>
+      </c>
+      <c r="F4" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I4)), ISNUMBER(SEARCH("first costs", $I4))), ISNUMBER(SEARCH("maximum damage", $I4))=FALSE), Cost_Database_Original!F3*0.6, Cost_Database_Original!F3)</f>
+        <v>128.61813859888753</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I5)), ISNUMBER(SEARCH("first costs", $I5))), ISNUMBER(SEARCH("maximum damage", $I5))=FALSE), Cost_Database_Original!D4*0.6, Cost_Database_Original!D4)</f>
+        <v>144.47551886574769</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I5)), ISNUMBER(SEARCH("first costs", $I5))), ISNUMBER(SEARCH("maximum damage", $I5))=FALSE), Cost_Database_Original!E4*0.6, Cost_Database_Original!E4)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I5)), ISNUMBER(SEARCH("first costs", $I5))), ISNUMBER(SEARCH("maximum damage", $I5))=FALSE), Cost_Database_Original!F4*0.6, Cost_Database_Original!F4)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I6)), ISNUMBER(SEARCH("first costs", $I6))), ISNUMBER(SEARCH("maximum damage", $I6))=FALSE), Cost_Database_Original!D5*0.6, Cost_Database_Original!D5)</f>
+        <v>5699999.9999999991</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I6)), ISNUMBER(SEARCH("first costs", $I6))), ISNUMBER(SEARCH("maximum damage", $I6))=FALSE), Cost_Database_Original!E5*0.6, Cost_Database_Original!E5)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I6)), ISNUMBER(SEARCH("first costs", $I6))), ISNUMBER(SEARCH("maximum damage", $I6))=FALSE), Cost_Database_Original!F5*0.6, Cost_Database_Original!F5)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I7)), ISNUMBER(SEARCH("first costs", $I7))), ISNUMBER(SEARCH("maximum damage", $I7))=FALSE), Cost_Database_Original!D6*0.6, Cost_Database_Original!D6)</f>
+        <v>59202.824252230406</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I7)), ISNUMBER(SEARCH("first costs", $I7))), ISNUMBER(SEARCH("maximum damage", $I7))=FALSE), Cost_Database_Original!E6*0.6, Cost_Database_Original!E6)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I7)), ISNUMBER(SEARCH("first costs", $I7))), ISNUMBER(SEARCH("maximum damage", $I7))=FALSE), Cost_Database_Original!F6*0.6, Cost_Database_Original!F6)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I8)), ISNUMBER(SEARCH("first costs", $I8))), ISNUMBER(SEARCH("maximum damage", $I8))=FALSE), Cost_Database_Original!D7*0.6, Cost_Database_Original!D7)</f>
+        <v>44303.033442412176</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I8)), ISNUMBER(SEARCH("first costs", $I8))), ISNUMBER(SEARCH("maximum damage", $I8))=FALSE), Cost_Database_Original!E7*0.6, Cost_Database_Original!E7)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I8)), ISNUMBER(SEARCH("first costs", $I8))), ISNUMBER(SEARCH("maximum damage", $I8))=FALSE), Cost_Database_Original!F7*0.6, Cost_Database_Original!F7)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I9)), ISNUMBER(SEARCH("first costs", $I9))), ISNUMBER(SEARCH("maximum damage", $I9))=FALSE), Cost_Database_Original!D8*0.6, Cost_Database_Original!D8)</f>
+        <v>2658.1820065447305</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I9)), ISNUMBER(SEARCH("first costs", $I9))), ISNUMBER(SEARCH("maximum damage", $I9))=FALSE), Cost_Database_Original!E8*0.6, Cost_Database_Original!E8)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I9)), ISNUMBER(SEARCH("first costs", $I9))), ISNUMBER(SEARCH("maximum damage", $I9))=FALSE), Cost_Database_Original!F8*0.6, Cost_Database_Original!F8)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I10)), ISNUMBER(SEARCH("first costs", $I10))), ISNUMBER(SEARCH("maximum damage", $I10))=FALSE), Cost_Database_Original!D9*0.6, Cost_Database_Original!D9)</f>
+        <v>69.055460321534525</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I10)), ISNUMBER(SEARCH("first costs", $I10))), ISNUMBER(SEARCH("maximum damage", $I10))=FALSE), Cost_Database_Original!E9*0.6, Cost_Database_Original!E9)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I10)), ISNUMBER(SEARCH("first costs", $I10))), ISNUMBER(SEARCH("maximum damage", $I10))=FALSE), Cost_Database_Original!F9*0.6, Cost_Database_Original!F9)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I11)), ISNUMBER(SEARCH("first costs", $I11))), ISNUMBER(SEARCH("maximum damage", $I11))=FALSE), Cost_Database_Original!D10*0.6, Cost_Database_Original!D10)</f>
+        <v>982.63143995676342</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I11)), ISNUMBER(SEARCH("first costs", $I11))), ISNUMBER(SEARCH("maximum damage", $I11))=FALSE), Cost_Database_Original!E10*0.6, Cost_Database_Original!E10)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I11)), ISNUMBER(SEARCH("first costs", $I11))), ISNUMBER(SEARCH("maximum damage", $I11))=FALSE), Cost_Database_Original!F10*0.6, Cost_Database_Original!F10)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I12)), ISNUMBER(SEARCH("first costs", $I12))), ISNUMBER(SEARCH("maximum damage", $I12))=FALSE), Cost_Database_Original!D11*0.6, Cost_Database_Original!D11)</f>
+        <v>5699999.9999999991</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I12)), ISNUMBER(SEARCH("first costs", $I12))), ISNUMBER(SEARCH("maximum damage", $I12))=FALSE), Cost_Database_Original!E11*0.6, Cost_Database_Original!E11)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I12)), ISNUMBER(SEARCH("first costs", $I12))), ISNUMBER(SEARCH("maximum damage", $I12))=FALSE), Cost_Database_Original!F11*0.6, Cost_Database_Original!F11)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I13)), ISNUMBER(SEARCH("first costs", $I13))), ISNUMBER(SEARCH("maximum damage", $I13))=FALSE), Cost_Database_Original!D12*0.6, Cost_Database_Original!D12)</f>
+        <v>Refer to supplementary material of source for complete overview</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I13)), ISNUMBER(SEARCH("first costs", $I13))), ISNUMBER(SEARCH("maximum damage", $I13))=FALSE), Cost_Database_Original!E12*0.6, Cost_Database_Original!E12)</f>
+        <v>Refer to supplementary material of source for complete overview</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I13)), ISNUMBER(SEARCH("first costs", $I13))), ISNUMBER(SEARCH("maximum damage", $I13))=FALSE), Cost_Database_Original!F12*0.6, Cost_Database_Original!F12)</f>
+        <v>Refer to supplementary material of source for complete overview</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I14)), ISNUMBER(SEARCH("first costs", $I14))), ISNUMBER(SEARCH("maximum damage", $I14))=FALSE), Cost_Database_Original!D13*0.6, Cost_Database_Original!D13)</f>
+        <v>517.9159524115089</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I14)), ISNUMBER(SEARCH("first costs", $I14))), ISNUMBER(SEARCH("maximum damage", $I14))=FALSE), Cost_Database_Original!E13*0.6, Cost_Database_Original!E13)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I14)), ISNUMBER(SEARCH("first costs", $I14))), ISNUMBER(SEARCH("maximum damage", $I14))=FALSE), Cost_Database_Original!F13*0.6, Cost_Database_Original!F13)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I15)), ISNUMBER(SEARCH("first costs", $I15))), ISNUMBER(SEARCH("maximum damage", $I15))=FALSE), Cost_Database_Original!D14*0.6, Cost_Database_Original!D14)</f>
+        <v>1953.3881797327804</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I15)), ISNUMBER(SEARCH("first costs", $I15))), ISNUMBER(SEARCH("maximum damage", $I15))=FALSE), Cost_Database_Original!E14*0.6, Cost_Database_Original!E14)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I15)), ISNUMBER(SEARCH("first costs", $I15))), ISNUMBER(SEARCH("maximum damage", $I15))=FALSE), Cost_Database_Original!F14*0.6, Cost_Database_Original!F14)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" t="s">
+        <v>221</v>
+      </c>
+      <c r="K15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I16)), ISNUMBER(SEARCH("first costs", $I16))), ISNUMBER(SEARCH("maximum damage", $I16))=FALSE), Cost_Database_Original!D15*0.6, Cost_Database_Original!D15)</f>
+        <v>1134.7207981677495</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I16)), ISNUMBER(SEARCH("first costs", $I16))), ISNUMBER(SEARCH("maximum damage", $I16))=FALSE), Cost_Database_Original!E15*0.6, Cost_Database_Original!E15)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F16" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I16)), ISNUMBER(SEARCH("first costs", $I16))), ISNUMBER(SEARCH("maximum damage", $I16))=FALSE), Cost_Database_Original!F15*0.6, Cost_Database_Original!F15)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I17)), ISNUMBER(SEARCH("first costs", $I17))), ISNUMBER(SEARCH("maximum damage", $I17))=FALSE), Cost_Database_Original!D16*0.6, Cost_Database_Original!D16)</f>
+        <v>231.33321632135204</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I17)), ISNUMBER(SEARCH("first costs", $I17))), ISNUMBER(SEARCH("maximum damage", $I17))=FALSE), Cost_Database_Original!E16*0.6, Cost_Database_Original!E16)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I17)), ISNUMBER(SEARCH("first costs", $I17))), ISNUMBER(SEARCH("maximum damage", $I17))=FALSE), Cost_Database_Original!F16*0.6, Cost_Database_Original!F16)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I18)), ISNUMBER(SEARCH("first costs", $I18))), ISNUMBER(SEARCH("maximum damage", $I18))=FALSE), Cost_Database_Original!D17*0.6, Cost_Database_Original!D17)</f>
+        <v>247.45592000669384</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I18)), ISNUMBER(SEARCH("first costs", $I18))), ISNUMBER(SEARCH("maximum damage", $I18))=FALSE), Cost_Database_Original!E17*0.6, Cost_Database_Original!E17)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I18)), ISNUMBER(SEARCH("first costs", $I18))), ISNUMBER(SEARCH("maximum damage", $I18))=FALSE), Cost_Database_Original!F17*0.6, Cost_Database_Original!F17)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I19)), ISNUMBER(SEARCH("first costs", $I19))), ISNUMBER(SEARCH("maximum damage", $I19))=FALSE), Cost_Database_Original!D18*0.6, Cost_Database_Original!D18)</f>
+        <v>289.9906029291522</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I19)), ISNUMBER(SEARCH("first costs", $I19))), ISNUMBER(SEARCH("maximum damage", $I19))=FALSE), Cost_Database_Original!E18*0.6, Cost_Database_Original!E18)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F19" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I19)), ISNUMBER(SEARCH("first costs", $I19))), ISNUMBER(SEARCH("maximum damage", $I19))=FALSE), Cost_Database_Original!F18*0.6, Cost_Database_Original!F18)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I20)), ISNUMBER(SEARCH("first costs", $I20))), ISNUMBER(SEARCH("maximum damage", $I20))=FALSE), Cost_Database_Original!D19*0.6, Cost_Database_Original!D19)</f>
+        <v>260.58086661129659</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I20)), ISNUMBER(SEARCH("first costs", $I20))), ISNUMBER(SEARCH("maximum damage", $I20))=FALSE), Cost_Database_Original!E19*0.6, Cost_Database_Original!E19)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I20)), ISNUMBER(SEARCH("first costs", $I20))), ISNUMBER(SEARCH("maximum damage", $I20))=FALSE), Cost_Database_Original!F19*0.6, Cost_Database_Original!F19)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I21)), ISNUMBER(SEARCH("first costs", $I21))), ISNUMBER(SEARCH("maximum damage", $I21))=FALSE), Cost_Database_Original!D20*0.6, Cost_Database_Original!D20)</f>
+        <v>265818.2006544731</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I21)), ISNUMBER(SEARCH("first costs", $I21))), ISNUMBER(SEARCH("maximum damage", $I21))=FALSE), Cost_Database_Original!E20*0.6, Cost_Database_Original!E20)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F21" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I21)), ISNUMBER(SEARCH("first costs", $I21))), ISNUMBER(SEARCH("maximum damage", $I21))=FALSE), Cost_Database_Original!F20*0.6, Cost_Database_Original!F20)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I22)), ISNUMBER(SEARCH("first costs", $I22))), ISNUMBER(SEARCH("maximum damage", $I22))=FALSE), Cost_Database_Original!D21*0.6, Cost_Database_Original!D21)</f>
+        <v>930363.7022906557</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I22)), ISNUMBER(SEARCH("first costs", $I22))), ISNUMBER(SEARCH("maximum damage", $I22))=FALSE), Cost_Database_Original!E21*0.6, Cost_Database_Original!E21)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I22)), ISNUMBER(SEARCH("first costs", $I22))), ISNUMBER(SEARCH("maximum damage", $I22))=FALSE), Cost_Database_Original!F21*0.6, Cost_Database_Original!F21)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I23)), ISNUMBER(SEARCH("first costs", $I23))), ISNUMBER(SEARCH("maximum damage", $I23))=FALSE), Cost_Database_Original!D22*0.6, Cost_Database_Original!D22)</f>
+        <v>265818.2006544731</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I23)), ISNUMBER(SEARCH("first costs", $I23))), ISNUMBER(SEARCH("maximum damage", $I23))=FALSE), Cost_Database_Original!E22*0.6, Cost_Database_Original!E22)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F23" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I23)), ISNUMBER(SEARCH("first costs", $I23))), ISNUMBER(SEARCH("maximum damage", $I23))=FALSE), Cost_Database_Original!F22*0.6, Cost_Database_Original!F22)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I24)), ISNUMBER(SEARCH("first costs", $I24))), ISNUMBER(SEARCH("maximum damage", $I24))=FALSE), Cost_Database_Original!D23*0.6, Cost_Database_Original!D23)</f>
+        <v>930363.7022906557</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I24)), ISNUMBER(SEARCH("first costs", $I24))), ISNUMBER(SEARCH("maximum damage", $I24))=FALSE), Cost_Database_Original!E23*0.6, Cost_Database_Original!E23)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I24)), ISNUMBER(SEARCH("first costs", $I24))), ISNUMBER(SEARCH("maximum damage", $I24))=FALSE), Cost_Database_Original!F23*0.6, Cost_Database_Original!F23)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I25)), ISNUMBER(SEARCH("first costs", $I25))), ISNUMBER(SEARCH("maximum damage", $I25))=FALSE), Cost_Database_Original!D24*0.6, Cost_Database_Original!D24)</f>
+        <v>11399999.999999998</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I25)), ISNUMBER(SEARCH("first costs", $I25))), ISNUMBER(SEARCH("maximum damage", $I25))=FALSE), Cost_Database_Original!E24*0.6, Cost_Database_Original!E24)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I25)), ISNUMBER(SEARCH("first costs", $I25))), ISNUMBER(SEARCH("maximum damage", $I25))=FALSE), Cost_Database_Original!F24*0.6, Cost_Database_Original!F24)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I26)), ISNUMBER(SEARCH("first costs", $I26))), ISNUMBER(SEARCH("maximum damage", $I26))=FALSE), Cost_Database_Original!D25*0.6, Cost_Database_Original!D25)</f>
+        <v>149.57919658517594</v>
+      </c>
+      <c r="E26" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I26)), ISNUMBER(SEARCH("first costs", $I26))), ISNUMBER(SEARCH("maximum damage", $I26))=FALSE), Cost_Database_Original!E25*0.6, Cost_Database_Original!E25)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F26" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I26)), ISNUMBER(SEARCH("first costs", $I26))), ISNUMBER(SEARCH("maximum damage", $I26))=FALSE), Cost_Database_Original!F25*0.6, Cost_Database_Original!F25)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I27)), ISNUMBER(SEARCH("first costs", $I27))), ISNUMBER(SEARCH("maximum damage", $I27))=FALSE), Cost_Database_Original!D26*0.6, Cost_Database_Original!D26)</f>
+        <v>239.32671453628149</v>
+      </c>
+      <c r="E27" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I27)), ISNUMBER(SEARCH("first costs", $I27))), ISNUMBER(SEARCH("maximum damage", $I27))=FALSE), Cost_Database_Original!E26*0.6, Cost_Database_Original!E26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F27" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I27)), ISNUMBER(SEARCH("first costs", $I27))), ISNUMBER(SEARCH("maximum damage", $I27))=FALSE), Cost_Database_Original!F26*0.6, Cost_Database_Original!F26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I28)), ISNUMBER(SEARCH("first costs", $I28))), ISNUMBER(SEARCH("maximum damage", $I28))=FALSE), Cost_Database_Original!D27*0.6, Cost_Database_Original!D27)</f>
+        <v>100.2359397036916</v>
+      </c>
+      <c r="E28" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I28)), ISNUMBER(SEARCH("first costs", $I28))), ISNUMBER(SEARCH("maximum damage", $I28))=FALSE), Cost_Database_Original!E27*0.6, Cost_Database_Original!E27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F28" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I28)), ISNUMBER(SEARCH("first costs", $I28))), ISNUMBER(SEARCH("maximum damage", $I28))=FALSE), Cost_Database_Original!F27*0.6, Cost_Database_Original!F27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I29)), ISNUMBER(SEARCH("first costs", $I29))), ISNUMBER(SEARCH("maximum damage", $I29))=FALSE), Cost_Database_Original!D28*0.6, Cost_Database_Original!D28)</f>
+        <v>160.30599155941167</v>
+      </c>
+      <c r="E29" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I29)), ISNUMBER(SEARCH("first costs", $I29))), ISNUMBER(SEARCH("maximum damage", $I29))=FALSE), Cost_Database_Original!E28*0.6, Cost_Database_Original!E28)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I29)), ISNUMBER(SEARCH("first costs", $I29))), ISNUMBER(SEARCH("maximum damage", $I29))=FALSE), Cost_Database_Original!F28*0.6, Cost_Database_Original!F28)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I30)), ISNUMBER(SEARCH("first costs", $I30))), ISNUMBER(SEARCH("maximum damage", $I30))=FALSE), Cost_Database_Original!D29*0.6, Cost_Database_Original!D29)</f>
+        <v>193772445.49125144</v>
+      </c>
+      <c r="E30" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I30)), ISNUMBER(SEARCH("first costs", $I30))), ISNUMBER(SEARCH("maximum damage", $I30))=FALSE), Cost_Database_Original!E29*0.6, Cost_Database_Original!E29)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F30" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I30)), ISNUMBER(SEARCH("first costs", $I30))), ISNUMBER(SEARCH("maximum damage", $I30))=FALSE), Cost_Database_Original!F29*0.6, Cost_Database_Original!F29)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I31)), ISNUMBER(SEARCH("first costs", $I31))), ISNUMBER(SEARCH("maximum damage", $I31))=FALSE), Cost_Database_Original!D30*0.6, Cost_Database_Original!D30)</f>
+        <v>974430401.17727005</v>
+      </c>
+      <c r="E31" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I31)), ISNUMBER(SEARCH("first costs", $I31))), ISNUMBER(SEARCH("maximum damage", $I31))=FALSE), Cost_Database_Original!E30*0.6, Cost_Database_Original!E30)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F31" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I31)), ISNUMBER(SEARCH("first costs", $I31))), ISNUMBER(SEARCH("maximum damage", $I31))=FALSE), Cost_Database_Original!F30*0.6, Cost_Database_Original!F30)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I32)), ISNUMBER(SEARCH("first costs", $I32))), ISNUMBER(SEARCH("maximum damage", $I32))=FALSE), Cost_Database_Original!D31*0.6, Cost_Database_Original!D31)</f>
+        <v>974430401.17727005</v>
+      </c>
+      <c r="E32" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I32)), ISNUMBER(SEARCH("first costs", $I32))), ISNUMBER(SEARCH("maximum damage", $I32))=FALSE), Cost_Database_Original!E31*0.6, Cost_Database_Original!E31)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F32" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I32)), ISNUMBER(SEARCH("first costs", $I32))), ISNUMBER(SEARCH("maximum damage", $I32))=FALSE), Cost_Database_Original!F31*0.6, Cost_Database_Original!F31)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I33)), ISNUMBER(SEARCH("first costs", $I33))), ISNUMBER(SEARCH("maximum damage", $I33))=FALSE), Cost_Database_Original!D32*0.6, Cost_Database_Original!D32)</f>
+        <v>75409.756929189811</v>
+      </c>
+      <c r="E33" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I33)), ISNUMBER(SEARCH("first costs", $I33))), ISNUMBER(SEARCH("maximum damage", $I33))=FALSE), Cost_Database_Original!E32*0.6, Cost_Database_Original!E32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I33)), ISNUMBER(SEARCH("first costs", $I33))), ISNUMBER(SEARCH("maximum damage", $I33))=FALSE), Cost_Database_Original!F32*0.6, Cost_Database_Original!F32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
+        <v>259</v>
+      </c>
+      <c r="K33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I34)), ISNUMBER(SEARCH("first costs", $I34))), ISNUMBER(SEARCH("maximum damage", $I34))=FALSE), Cost_Database_Original!D33*0.6, Cost_Database_Original!D33)</f>
+        <v>77104.358208497433</v>
+      </c>
+      <c r="E34" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I34)), ISNUMBER(SEARCH("first costs", $I34))), ISNUMBER(SEARCH("maximum damage", $I34))=FALSE), Cost_Database_Original!E33*0.6, Cost_Database_Original!E33)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F34" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I34)), ISNUMBER(SEARCH("first costs", $I34))), ISNUMBER(SEARCH("maximum damage", $I34))=FALSE), Cost_Database_Original!F33*0.6, Cost_Database_Original!F33)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" t="s">
+        <v>259</v>
+      </c>
+      <c r="K34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I35)), ISNUMBER(SEARCH("first costs", $I35))), ISNUMBER(SEARCH("maximum damage", $I35))=FALSE), Cost_Database_Original!D34*0.6, Cost_Database_Original!D34)</f>
+        <v>121163.991470496</v>
+      </c>
+      <c r="E35" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I35)), ISNUMBER(SEARCH("first costs", $I35))), ISNUMBER(SEARCH("maximum damage", $I35))=FALSE), Cost_Database_Original!E34*0.6, Cost_Database_Original!E34)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F35" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I35)), ISNUMBER(SEARCH("first costs", $I35))), ISNUMBER(SEARCH("maximum damage", $I35))=FALSE), Cost_Database_Original!F34*0.6, Cost_Database_Original!F34)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I36)), ISNUMBER(SEARCH("first costs", $I36))), ISNUMBER(SEARCH("maximum damage", $I36))=FALSE), Cost_Database_Original!D35*0.6, Cost_Database_Original!D35)</f>
+        <v>147430.31129976435</v>
+      </c>
+      <c r="E36" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I36)), ISNUMBER(SEARCH("first costs", $I36))), ISNUMBER(SEARCH("maximum damage", $I36))=FALSE), Cost_Database_Original!E35*0.6, Cost_Database_Original!E35)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F36" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I36)), ISNUMBER(SEARCH("first costs", $I36))), ISNUMBER(SEARCH("maximum damage", $I36))=FALSE), Cost_Database_Original!F35*0.6, Cost_Database_Original!F35)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I37)), ISNUMBER(SEARCH("first costs", $I37))), ISNUMBER(SEARCH("maximum damage", $I37))=FALSE), Cost_Database_Original!D36*0.6, Cost_Database_Original!D36)</f>
+        <v>25.029188273216686</v>
+      </c>
+      <c r="E37" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I37)), ISNUMBER(SEARCH("first costs", $I37))), ISNUMBER(SEARCH("maximum damage", $I37))=FALSE), Cost_Database_Original!E36*0.6, Cost_Database_Original!E36)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F37" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I37)), ISNUMBER(SEARCH("first costs", $I37))), ISNUMBER(SEARCH("maximum damage", $I37))=FALSE), Cost_Database_Original!F36*0.6, Cost_Database_Original!F36)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I38)), ISNUMBER(SEARCH("first costs", $I38))), ISNUMBER(SEARCH("maximum damage", $I38))=FALSE), Cost_Database_Original!D37*0.6, Cost_Database_Original!D37)</f>
+        <v>94.767877556126749</v>
+      </c>
+      <c r="E38" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I38)), ISNUMBER(SEARCH("first costs", $I38))), ISNUMBER(SEARCH("maximum damage", $I38))=FALSE), Cost_Database_Original!E37*0.6, Cost_Database_Original!E37)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F38" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I38)), ISNUMBER(SEARCH("first costs", $I38))), ISNUMBER(SEARCH("maximum damage", $I38))=FALSE), Cost_Database_Original!F37*0.6, Cost_Database_Original!F37)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" t="s">
+        <v>259</v>
+      </c>
+      <c r="K38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I39)), ISNUMBER(SEARCH("first costs", $I39))), ISNUMBER(SEARCH("maximum damage", $I39))=FALSE), Cost_Database_Original!D38*0.6, Cost_Database_Original!D38)</f>
+        <v>131.62205216128717</v>
+      </c>
+      <c r="E39" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I39)), ISNUMBER(SEARCH("first costs", $I39))), ISNUMBER(SEARCH("maximum damage", $I39))=FALSE), Cost_Database_Original!E38*0.6, Cost_Database_Original!E38)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F39" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I39)), ISNUMBER(SEARCH("first costs", $I39))), ISNUMBER(SEARCH("maximum damage", $I39))=FALSE), Cost_Database_Original!F38*0.6, Cost_Database_Original!F38)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" t="s">
+        <v>259</v>
+      </c>
+      <c r="K39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I40)), ISNUMBER(SEARCH("first costs", $I40))), ISNUMBER(SEARCH("maximum damage", $I40))=FALSE), Cost_Database_Original!D39*0.6, Cost_Database_Original!D39)</f>
+        <v>126.35717007483566</v>
+      </c>
+      <c r="E40" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I40)), ISNUMBER(SEARCH("first costs", $I40))), ISNUMBER(SEARCH("maximum damage", $I40))=FALSE), Cost_Database_Original!E39*0.6, Cost_Database_Original!E39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F40" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I40)), ISNUMBER(SEARCH("first costs", $I40))), ISNUMBER(SEARCH("maximum damage", $I40))=FALSE), Cost_Database_Original!F39*0.6, Cost_Database_Original!F39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" t="s">
+        <v>259</v>
+      </c>
+      <c r="K40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I41)), ISNUMBER(SEARCH("first costs", $I41))), ISNUMBER(SEARCH("maximum damage", $I41))=FALSE), Cost_Database_Original!D40*0.6, Cost_Database_Original!D40)</f>
+        <v>197.43307824193073</v>
+      </c>
+      <c r="E41" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I41)), ISNUMBER(SEARCH("first costs", $I41))), ISNUMBER(SEARCH("maximum damage", $I41))=FALSE), Cost_Database_Original!E40*0.6, Cost_Database_Original!E40)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F41" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I41)), ISNUMBER(SEARCH("first costs", $I41))), ISNUMBER(SEARCH("maximum damage", $I41))=FALSE), Cost_Database_Original!F40*0.6, Cost_Database_Original!F40)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" t="s">
+        <v>259</v>
+      </c>
+      <c r="K41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I42)), ISNUMBER(SEARCH("first costs", $I42))), ISNUMBER(SEARCH("maximum damage", $I42))=FALSE), Cost_Database_Original!D41*0.6, Cost_Database_Original!D41)</f>
+        <v>102599.99999999999</v>
+      </c>
+      <c r="E42" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I42)), ISNUMBER(SEARCH("first costs", $I42))), ISNUMBER(SEARCH("maximum damage", $I42))=FALSE), Cost_Database_Original!E41*0.6, Cost_Database_Original!E41)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F42" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I42)), ISNUMBER(SEARCH("first costs", $I42))), ISNUMBER(SEARCH("maximum damage", $I42))=FALSE), Cost_Database_Original!F41*0.6, Cost_Database_Original!F41)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I43)), ISNUMBER(SEARCH("first costs", $I43))), ISNUMBER(SEARCH("maximum damage", $I43))=FALSE), Cost_Database_Original!D42*0.6, Cost_Database_Original!D42)</f>
+        <v>443554.49151271739</v>
+      </c>
+      <c r="E43" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I43)), ISNUMBER(SEARCH("first costs", $I43))), ISNUMBER(SEARCH("maximum damage", $I43))=FALSE), Cost_Database_Original!E42*0.6, Cost_Database_Original!E42)</f>
+        <v>29681.10890743558</v>
+      </c>
+      <c r="F43" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I43)), ISNUMBER(SEARCH("first costs", $I43))), ISNUMBER(SEARCH("maximum damage", $I43))=FALSE), Cost_Database_Original!F42*0.6, Cost_Database_Original!F42)</f>
+        <v>10982010.295751166</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I44)), ISNUMBER(SEARCH("first costs", $I44))), ISNUMBER(SEARCH("maximum damage", $I44))=FALSE), Cost_Database_Original!D43*0.6, Cost_Database_Original!D43)</f>
+        <v>132909.10032723655</v>
+      </c>
+      <c r="E44" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I44)), ISNUMBER(SEARCH("first costs", $I44))), ISNUMBER(SEARCH("maximum damage", $I44))=FALSE), Cost_Database_Original!E43*0.6, Cost_Database_Original!E43)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F44" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I44)), ISNUMBER(SEARCH("first costs", $I44))), ISNUMBER(SEARCH("maximum damage", $I44))=FALSE), Cost_Database_Original!F43*0.6, Cost_Database_Original!F43)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I45)), ISNUMBER(SEARCH("first costs", $I45))), ISNUMBER(SEARCH("maximum damage", $I45))=FALSE), Cost_Database_Original!D44*0.6, Cost_Database_Original!D44)</f>
+        <v>465181.85114532785</v>
+      </c>
+      <c r="E45" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I45)), ISNUMBER(SEARCH("first costs", $I45))), ISNUMBER(SEARCH("maximum damage", $I45))=FALSE), Cost_Database_Original!E44*0.6, Cost_Database_Original!E44)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F45" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I45)), ISNUMBER(SEARCH("first costs", $I45))), ISNUMBER(SEARCH("maximum damage", $I45))=FALSE), Cost_Database_Original!F44*0.6, Cost_Database_Original!F44)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I46)), ISNUMBER(SEARCH("first costs", $I46))), ISNUMBER(SEARCH("maximum damage", $I46))=FALSE), Cost_Database_Original!D45*0.6, Cost_Database_Original!D45)</f>
+        <v>132909.10032723655</v>
+      </c>
+      <c r="E46" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I46)), ISNUMBER(SEARCH("first costs", $I46))), ISNUMBER(SEARCH("maximum damage", $I46))=FALSE), Cost_Database_Original!E45*0.6, Cost_Database_Original!E45)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F46" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I46)), ISNUMBER(SEARCH("first costs", $I46))), ISNUMBER(SEARCH("maximum damage", $I46))=FALSE), Cost_Database_Original!F45*0.6, Cost_Database_Original!F45)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I47)), ISNUMBER(SEARCH("first costs", $I47))), ISNUMBER(SEARCH("maximum damage", $I47))=FALSE), Cost_Database_Original!D46*0.6, Cost_Database_Original!D46)</f>
+        <v>465181.85114532785</v>
+      </c>
+      <c r="E47" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I47)), ISNUMBER(SEARCH("first costs", $I47))), ISNUMBER(SEARCH("maximum damage", $I47))=FALSE), Cost_Database_Original!E46*0.6, Cost_Database_Original!E46)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F47" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I47)), ISNUMBER(SEARCH("first costs", $I47))), ISNUMBER(SEARCH("maximum damage", $I47))=FALSE), Cost_Database_Original!F46*0.6, Cost_Database_Original!F46)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I48)), ISNUMBER(SEARCH("first costs", $I48))), ISNUMBER(SEARCH("maximum damage", $I48))=FALSE), Cost_Database_Original!D47*0.6, Cost_Database_Original!D47)</f>
+        <v>90.632979293402016</v>
+      </c>
+      <c r="E48" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I48)), ISNUMBER(SEARCH("first costs", $I48))), ISNUMBER(SEARCH("maximum damage", $I48))=FALSE), Cost_Database_Original!E47*0.6, Cost_Database_Original!E47)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I48)), ISNUMBER(SEARCH("first costs", $I48))), ISNUMBER(SEARCH("maximum damage", $I48))=FALSE), Cost_Database_Original!F47*0.6, Cost_Database_Original!F47)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" t="s">
+        <v>130</v>
+      </c>
+      <c r="I48" t="s">
+        <v>144</v>
+      </c>
+      <c r="J48" t="s">
+        <v>153</v>
+      </c>
+      <c r="K48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I49)), ISNUMBER(SEARCH("first costs", $I49))), ISNUMBER(SEARCH("maximum damage", $I49))=FALSE), Cost_Database_Original!D48*0.6, Cost_Database_Original!D48)</f>
+        <v>29601.412126115203</v>
+      </c>
+      <c r="E49" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I49)), ISNUMBER(SEARCH("first costs", $I49))), ISNUMBER(SEARCH("maximum damage", $I49))=FALSE), Cost_Database_Original!E48*0.6, Cost_Database_Original!E48)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F49" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I49)), ISNUMBER(SEARCH("first costs", $I49))), ISNUMBER(SEARCH("maximum damage", $I49))=FALSE), Cost_Database_Original!F48*0.6, Cost_Database_Original!F48)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>78</v>
+      </c>
+      <c r="J49" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I50)), ISNUMBER(SEARCH("first costs", $I50))), ISNUMBER(SEARCH("maximum damage", $I50))=FALSE), Cost_Database_Original!D49*0.6, Cost_Database_Original!D49)</f>
+        <v>291080.55257346615</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I50)), ISNUMBER(SEARCH("first costs", $I50))), ISNUMBER(SEARCH("maximum damage", $I50))=FALSE), Cost_Database_Original!E49*0.6, Cost_Database_Original!E49)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I50)), ISNUMBER(SEARCH("first costs", $I50))), ISNUMBER(SEARCH("maximum damage", $I50))=FALSE), Cost_Database_Original!F49*0.6, Cost_Database_Original!F49)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D51" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I51)), ISNUMBER(SEARCH("first costs", $I51))), ISNUMBER(SEARCH("maximum damage", $I51))=FALSE), Cost_Database_Original!D50*0.6, Cost_Database_Original!D50)</f>
+        <v>4132.7259307533996</v>
+      </c>
+      <c r="E51" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I51)), ISNUMBER(SEARCH("first costs", $I51))), ISNUMBER(SEARCH("maximum damage", $I51))=FALSE), Cost_Database_Original!E50*0.6, Cost_Database_Original!E50)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I51)), ISNUMBER(SEARCH("first costs", $I51))), ISNUMBER(SEARCH("maximum damage", $I51))=FALSE), Cost_Database_Original!F50*0.6, Cost_Database_Original!F50)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G51" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" t="s">
+        <v>263</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I52)), ISNUMBER(SEARCH("first costs", $I52))), ISNUMBER(SEARCH("maximum damage", $I52))=FALSE), Cost_Database_Original!D51*0.6, Cost_Database_Original!D51)</f>
+        <v>491.20515660390225</v>
+      </c>
+      <c r="E52" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I52)), ISNUMBER(SEARCH("first costs", $I52))), ISNUMBER(SEARCH("maximum damage", $I52))=FALSE), Cost_Database_Original!E51*0.6, Cost_Database_Original!E51)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I52)), ISNUMBER(SEARCH("first costs", $I52))), ISNUMBER(SEARCH("maximum damage", $I52))=FALSE), Cost_Database_Original!F51*0.6, Cost_Database_Original!F51)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G52" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I53)), ISNUMBER(SEARCH("first costs", $I53))), ISNUMBER(SEARCH("maximum damage", $I53))=FALSE), Cost_Database_Original!D52*0.6, Cost_Database_Original!D52)</f>
+        <v>614.00644575487786</v>
+      </c>
+      <c r="E53" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I53)), ISNUMBER(SEARCH("first costs", $I53))), ISNUMBER(SEARCH("maximum damage", $I53))=FALSE), Cost_Database_Original!E52*0.6, Cost_Database_Original!E52)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F53" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I53)), ISNUMBER(SEARCH("first costs", $I53))), ISNUMBER(SEARCH("maximum damage", $I53))=FALSE), Cost_Database_Original!F52*0.6, Cost_Database_Original!F52)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G53" t="s">
+        <v>54</v>
+      </c>
+      <c r="H53" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I54)), ISNUMBER(SEARCH("first costs", $I54))), ISNUMBER(SEARCH("maximum damage", $I54))=FALSE), Cost_Database_Original!D53*0.6, Cost_Database_Original!D53)</f>
+        <v>5894.4618792468273</v>
+      </c>
+      <c r="E54" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I54)), ISNUMBER(SEARCH("first costs", $I54))), ISNUMBER(SEARCH("maximum damage", $I54))=FALSE), Cost_Database_Original!E53*0.6, Cost_Database_Original!E53)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I54)), ISNUMBER(SEARCH("first costs", $I54))), ISNUMBER(SEARCH("maximum damage", $I54))=FALSE), Cost_Database_Original!F53*0.6, Cost_Database_Original!F53)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+      <c r="J54" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I55)), ISNUMBER(SEARCH("first costs", $I55))), ISNUMBER(SEARCH("maximum damage", $I55))=FALSE), Cost_Database_Original!D54*0.6, Cost_Database_Original!D54)</f>
+        <v>7368.0773490585343</v>
+      </c>
+      <c r="E55" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I55)), ISNUMBER(SEARCH("first costs", $I55))), ISNUMBER(SEARCH("maximum damage", $I55))=FALSE), Cost_Database_Original!E54*0.6, Cost_Database_Original!E54)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F55" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I55)), ISNUMBER(SEARCH("first costs", $I55))), ISNUMBER(SEARCH("maximum damage", $I55))=FALSE), Cost_Database_Original!F54*0.6, Cost_Database_Original!F54)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G55" t="s">
+        <v>54</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I56)), ISNUMBER(SEARCH("first costs", $I56))), ISNUMBER(SEARCH("maximum damage", $I56))=FALSE), Cost_Database_Original!D55*0.6, Cost_Database_Original!D55)</f>
+        <v>24560.257830195114</v>
+      </c>
+      <c r="E56" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I56)), ISNUMBER(SEARCH("first costs", $I56))), ISNUMBER(SEARCH("maximum damage", $I56))=FALSE), Cost_Database_Original!E55*0.6, Cost_Database_Original!E55)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F56" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I56)), ISNUMBER(SEARCH("first costs", $I56))), ISNUMBER(SEARCH("maximum damage", $I56))=FALSE), Cost_Database_Original!F55*0.6, Cost_Database_Original!F55)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G56" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>78</v>
+      </c>
+      <c r="J56" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I57)), ISNUMBER(SEARCH("first costs", $I57))), ISNUMBER(SEARCH("maximum damage", $I57))=FALSE), Cost_Database_Original!D56*0.6, Cost_Database_Original!D56)</f>
+        <v>24882.662967400163</v>
+      </c>
+      <c r="E57" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I57)), ISNUMBER(SEARCH("first costs", $I57))), ISNUMBER(SEARCH("maximum damage", $I57))=FALSE), Cost_Database_Original!E56*0.6, Cost_Database_Original!E56)</f>
+        <v>4946.8514845725977</v>
+      </c>
+      <c r="F57" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I57)), ISNUMBER(SEARCH("first costs", $I57))), ISNUMBER(SEARCH("maximum damage", $I57))=FALSE), Cost_Database_Original!F56*0.6, Cost_Database_Original!F56)</f>
+        <v>69255.920784016358</v>
+      </c>
+      <c r="G57" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" t="s">
+        <v>55</v>
+      </c>
+      <c r="I57" t="s">
+        <v>76</v>
+      </c>
+      <c r="J57" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I58)), ISNUMBER(SEARCH("first costs", $I58))), ISNUMBER(SEARCH("maximum damage", $I58))=FALSE), Cost_Database_Original!D57*0.6, Cost_Database_Original!D57)</f>
+        <v>6897.2263896804452</v>
+      </c>
+      <c r="E58" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I58)), ISNUMBER(SEARCH("first costs", $I58))), ISNUMBER(SEARCH("maximum damage", $I58))=FALSE), Cost_Database_Original!E57*0.6, Cost_Database_Original!E57)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F58" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I58)), ISNUMBER(SEARCH("first costs", $I58))), ISNUMBER(SEARCH("maximum damage", $I58))=FALSE), Cost_Database_Original!F57*0.6, Cost_Database_Original!F57)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J58" t="s">
+        <v>74</v>
+      </c>
+      <c r="K58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I59)), ISNUMBER(SEARCH("first costs", $I59))), ISNUMBER(SEARCH("maximum damage", $I59))=FALSE), Cost_Database_Original!D58*0.6, Cost_Database_Original!D58)</f>
+        <v>Refer to supplementary material of source for complete overview</v>
+      </c>
+      <c r="E59" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I59)), ISNUMBER(SEARCH("first costs", $I59))), ISNUMBER(SEARCH("maximum damage", $I59))=FALSE), Cost_Database_Original!E58*0.6, Cost_Database_Original!E58)</f>
+        <v>Refer to supplementary material of source for complete overview</v>
+      </c>
+      <c r="F59" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I59)), ISNUMBER(SEARCH("first costs", $I59))), ISNUMBER(SEARCH("maximum damage", $I59))=FALSE), Cost_Database_Original!F58*0.6, Cost_Database_Original!F58)</f>
+        <v>Refer to supplementary material of source for complete overview</v>
+      </c>
+      <c r="G59" t="s">
+        <v>44</v>
+      </c>
+      <c r="H59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I60)), ISNUMBER(SEARCH("first costs", $I60))), ISNUMBER(SEARCH("maximum damage", $I60))=FALSE), Cost_Database_Original!D59*0.6, Cost_Database_Original!D59)</f>
+        <v>3340904.2326077837</v>
+      </c>
+      <c r="E60" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I60)), ISNUMBER(SEARCH("first costs", $I60))), ISNUMBER(SEARCH("maximum damage", $I60))=FALSE), Cost_Database_Original!E59*0.6, Cost_Database_Original!E59)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F60" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I60)), ISNUMBER(SEARCH("first costs", $I60))), ISNUMBER(SEARCH("maximum damage", $I60))=FALSE), Cost_Database_Original!F59*0.6, Cost_Database_Original!F59)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D61" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I61)), ISNUMBER(SEARCH("first costs", $I61))), ISNUMBER(SEARCH("maximum damage", $I61))=FALSE), Cost_Database_Original!D60*0.6, Cost_Database_Original!D60)</f>
+        <v>3340904.2326077837</v>
+      </c>
+      <c r="E61" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I61)), ISNUMBER(SEARCH("first costs", $I61))), ISNUMBER(SEARCH("maximum damage", $I61))=FALSE), Cost_Database_Original!E60*0.6, Cost_Database_Original!E60)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F61" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I61)), ISNUMBER(SEARCH("first costs", $I61))), ISNUMBER(SEARCH("maximum damage", $I61))=FALSE), Cost_Database_Original!F60*0.6, Cost_Database_Original!F60)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I62)), ISNUMBER(SEARCH("first costs", $I62))), ISNUMBER(SEARCH("maximum damage", $I62))=FALSE), Cost_Database_Original!D61*0.6, Cost_Database_Original!D61)</f>
+        <v>3563631.1814483022</v>
+      </c>
+      <c r="E62" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I62)), ISNUMBER(SEARCH("first costs", $I62))), ISNUMBER(SEARCH("maximum damage", $I62))=FALSE), Cost_Database_Original!E61*0.6, Cost_Database_Original!E61)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F62" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I62)), ISNUMBER(SEARCH("first costs", $I62))), ISNUMBER(SEARCH("maximum damage", $I62))=FALSE), Cost_Database_Original!F61*0.6, Cost_Database_Original!F61)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I63)), ISNUMBER(SEARCH("first costs", $I63))), ISNUMBER(SEARCH("maximum damage", $I63))=FALSE), Cost_Database_Original!D62*0.6, Cost_Database_Original!D62)</f>
+        <v>5343.6150813358736</v>
+      </c>
+      <c r="E63" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I63)), ISNUMBER(SEARCH("first costs", $I63))), ISNUMBER(SEARCH("maximum damage", $I63))=FALSE), Cost_Database_Original!E62*0.6, Cost_Database_Original!E62)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F63" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I63)), ISNUMBER(SEARCH("first costs", $I63))), ISNUMBER(SEARCH("maximum damage", $I63))=FALSE), Cost_Database_Original!F62*0.6, Cost_Database_Original!F62)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G63" t="s">
+        <v>54</v>
+      </c>
+      <c r="H63" t="s">
+        <v>55</v>
+      </c>
+      <c r="I63" t="s">
+        <v>83</v>
+      </c>
+      <c r="J63" t="s">
+        <v>221</v>
+      </c>
+      <c r="K63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I64)), ISNUMBER(SEARCH("first costs", $I64))), ISNUMBER(SEARCH("maximum damage", $I64))=FALSE), Cost_Database_Original!D63*0.6, Cost_Database_Original!D63)</f>
+        <v>1335.9037703339684</v>
+      </c>
+      <c r="E64" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I64)), ISNUMBER(SEARCH("first costs", $I64))), ISNUMBER(SEARCH("maximum damage", $I64))=FALSE), Cost_Database_Original!E63*0.6, Cost_Database_Original!E63)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F64" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I64)), ISNUMBER(SEARCH("first costs", $I64))), ISNUMBER(SEARCH("maximum damage", $I64))=FALSE), Cost_Database_Original!F63*0.6, Cost_Database_Original!F63)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G64" t="s">
+        <v>54</v>
+      </c>
+      <c r="H64" t="s">
+        <v>55</v>
+      </c>
+      <c r="I64" t="s">
+        <v>83</v>
+      </c>
+      <c r="J64" t="s">
+        <v>221</v>
+      </c>
+      <c r="K64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I65)), ISNUMBER(SEARCH("first costs", $I65))), ISNUMBER(SEARCH("maximum damage", $I65))=FALSE), Cost_Database_Original!D64*0.6, Cost_Database_Original!D64)</f>
+        <v>545.60728965390797</v>
+      </c>
+      <c r="E65" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I65)), ISNUMBER(SEARCH("first costs", $I65))), ISNUMBER(SEARCH("maximum damage", $I65))=FALSE), Cost_Database_Original!E64*0.6, Cost_Database_Original!E64)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F65" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I65)), ISNUMBER(SEARCH("first costs", $I65))), ISNUMBER(SEARCH("maximum damage", $I65))=FALSE), Cost_Database_Original!F64*0.6, Cost_Database_Original!F64)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G65" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65" t="s">
+        <v>143</v>
+      </c>
+      <c r="I65" t="s">
+        <v>144</v>
+      </c>
+      <c r="J65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I66)), ISNUMBER(SEARCH("first costs", $I66))), ISNUMBER(SEARCH("maximum damage", $I66))=FALSE), Cost_Database_Original!D65*0.6, Cost_Database_Original!D65)</f>
+        <v>545.60728965390797</v>
+      </c>
+      <c r="E66" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I66)), ISNUMBER(SEARCH("first costs", $I66))), ISNUMBER(SEARCH("maximum damage", $I66))=FALSE), Cost_Database_Original!E65*0.6, Cost_Database_Original!E65)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F66" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I66)), ISNUMBER(SEARCH("first costs", $I66))), ISNUMBER(SEARCH("maximum damage", $I66))=FALSE), Cost_Database_Original!F65*0.6, Cost_Database_Original!F65)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G66" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" t="s">
+        <v>144</v>
+      </c>
+      <c r="J66" t="s">
+        <v>145</v>
+      </c>
+      <c r="K66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I67)), ISNUMBER(SEARCH("first costs", $I67))), ISNUMBER(SEARCH("maximum damage", $I67))=FALSE), Cost_Database_Original!D66*0.6, Cost_Database_Original!D66)</f>
+        <v>4.6783047344386537</v>
+      </c>
+      <c r="E67" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I67)), ISNUMBER(SEARCH("first costs", $I67))), ISNUMBER(SEARCH("maximum damage", $I67))=FALSE), Cost_Database_Original!E66*0.6, Cost_Database_Original!E66)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F67" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I67)), ISNUMBER(SEARCH("first costs", $I67))), ISNUMBER(SEARCH("maximum damage", $I67))=FALSE), Cost_Database_Original!F66*0.6, Cost_Database_Original!F66)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G67" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" t="s">
+        <v>144</v>
+      </c>
+      <c r="J67" t="s">
+        <v>145</v>
+      </c>
+      <c r="K67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I68)), ISNUMBER(SEARCH("first costs", $I68))), ISNUMBER(SEARCH("maximum damage", $I68))=FALSE), Cost_Database_Original!D67*0.6, Cost_Database_Original!D67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E68" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I68)), ISNUMBER(SEARCH("first costs", $I68))), ISNUMBER(SEARCH("maximum damage", $I68))=FALSE), Cost_Database_Original!E67*0.6, Cost_Database_Original!E67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F68" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I68)), ISNUMBER(SEARCH("first costs", $I68))), ISNUMBER(SEARCH("maximum damage", $I68))=FALSE), Cost_Database_Original!F67*0.6, Cost_Database_Original!F67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G68" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" t="s">
+        <v>143</v>
+      </c>
+      <c r="I68" t="s">
+        <v>144</v>
+      </c>
+      <c r="J68" t="s">
+        <v>145</v>
+      </c>
+      <c r="K68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I69)), ISNUMBER(SEARCH("first costs", $I69))), ISNUMBER(SEARCH("maximum damage", $I69))=FALSE), Cost_Database_Original!D68*0.6, Cost_Database_Original!D68)</f>
+        <v>N/A</v>
+      </c>
+      <c r="E69" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I69)), ISNUMBER(SEARCH("first costs", $I69))), ISNUMBER(SEARCH("maximum damage", $I69))=FALSE), Cost_Database_Original!E68*0.6, Cost_Database_Original!E68)</f>
+        <v>296.90420446261135</v>
+      </c>
+      <c r="F69" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I69)), ISNUMBER(SEARCH("first costs", $I69))), ISNUMBER(SEARCH("maximum damage", $I69))=FALSE), Cost_Database_Original!F68*0.6, Cost_Database_Original!F68)</f>
+        <v>7422.6051115652826</v>
+      </c>
+      <c r="G69" t="s">
+        <v>54</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
+        <v>61</v>
+      </c>
+      <c r="J69" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I70)), ISNUMBER(SEARCH("first costs", $I70))), ISNUMBER(SEARCH("maximum damage", $I70))=FALSE), Cost_Database_Original!D69*0.6, Cost_Database_Original!D69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E70" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I70)), ISNUMBER(SEARCH("first costs", $I70))), ISNUMBER(SEARCH("maximum damage", $I70))=FALSE), Cost_Database_Original!E69*0.6, Cost_Database_Original!E69)</f>
+        <v>2082.0949496522335</v>
+      </c>
+      <c r="F70" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I70)), ISNUMBER(SEARCH("first costs", $I70))), ISNUMBER(SEARCH("maximum damage", $I70))=FALSE), Cost_Database_Original!F69*0.6, Cost_Database_Original!F69)</f>
+        <v>20820.949496522338</v>
+      </c>
+      <c r="G70" t="s">
+        <v>54</v>
+      </c>
+      <c r="H70" t="s">
+        <v>49</v>
+      </c>
+      <c r="I70" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" t="s">
+        <v>50</v>
+      </c>
+      <c r="K70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I71)), ISNUMBER(SEARCH("first costs", $I71))), ISNUMBER(SEARCH("maximum damage", $I71))=FALSE), Cost_Database_Original!D70*0.6, Cost_Database_Original!D70)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E71" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I71)), ISNUMBER(SEARCH("first costs", $I71))), ISNUMBER(SEARCH("maximum damage", $I71))=FALSE), Cost_Database_Original!E70*0.6, Cost_Database_Original!E70)</f>
+        <v>1487.2106783230236</v>
+      </c>
+      <c r="F71" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I71)), ISNUMBER(SEARCH("first costs", $I71))), ISNUMBER(SEARCH("maximum damage", $I71))=FALSE), Cost_Database_Original!F70*0.6, Cost_Database_Original!F70)</f>
+        <v>4461.6320349690714</v>
+      </c>
+      <c r="G71" t="s">
+        <v>54</v>
+      </c>
+      <c r="H71" t="s">
+        <v>49</v>
+      </c>
+      <c r="I71" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" t="s">
+        <v>50</v>
+      </c>
+      <c r="K71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I72)), ISNUMBER(SEARCH("first costs", $I72))), ISNUMBER(SEARCH("maximum damage", $I72))=FALSE), Cost_Database_Original!D71*0.6, Cost_Database_Original!D71)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E72" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I72)), ISNUMBER(SEARCH("first costs", $I72))), ISNUMBER(SEARCH("maximum damage", $I72))=FALSE), Cost_Database_Original!E71*0.6, Cost_Database_Original!E71)</f>
+        <v>594.88427132920947</v>
+      </c>
+      <c r="F72" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I72)), ISNUMBER(SEARCH("first costs", $I72))), ISNUMBER(SEARCH("maximum damage", $I72))=FALSE), Cost_Database_Original!F71*0.6, Cost_Database_Original!F71)</f>
+        <v>1784.6528139876289</v>
+      </c>
+      <c r="G72" t="s">
+        <v>54</v>
+      </c>
+      <c r="H72" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" t="s">
+        <v>50</v>
+      </c>
+      <c r="K72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I73)), ISNUMBER(SEARCH("first costs", $I73))), ISNUMBER(SEARCH("maximum damage", $I73))=FALSE), Cost_Database_Original!D72*0.6, Cost_Database_Original!D72)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E73" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I73)), ISNUMBER(SEARCH("first costs", $I73))), ISNUMBER(SEARCH("maximum damage", $I73))=FALSE), Cost_Database_Original!E72*0.6, Cost_Database_Original!E72)</f>
+        <v>297.44213566460473</v>
+      </c>
+      <c r="F73" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I73)), ISNUMBER(SEARCH("first costs", $I73))), ISNUMBER(SEARCH("maximum damage", $I73))=FALSE), Cost_Database_Original!F72*0.6, Cost_Database_Original!F72)</f>
+        <v>892.32640699381443</v>
+      </c>
+      <c r="G73" t="s">
+        <v>54</v>
+      </c>
+      <c r="H73" t="s">
+        <v>49</v>
+      </c>
+      <c r="I73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" t="s">
+        <v>50</v>
+      </c>
+      <c r="K73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I74)), ISNUMBER(SEARCH("first costs", $I74))), ISNUMBER(SEARCH("maximum damage", $I74))=FALSE), Cost_Database_Original!D73*0.6, Cost_Database_Original!D73)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E74" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I74)), ISNUMBER(SEARCH("first costs", $I74))), ISNUMBER(SEARCH("maximum damage", $I74))=FALSE), Cost_Database_Original!E73*0.6, Cost_Database_Original!E73)</f>
+        <v>118.97685426584189</v>
+      </c>
+      <c r="F74" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I74)), ISNUMBER(SEARCH("first costs", $I74))), ISNUMBER(SEARCH("maximum damage", $I74))=FALSE), Cost_Database_Original!F73*0.6, Cost_Database_Original!F73)</f>
+        <v>356.93056279752574</v>
+      </c>
+      <c r="G74" t="s">
+        <v>54</v>
+      </c>
+      <c r="H74" t="s">
+        <v>49</v>
+      </c>
+      <c r="I74" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" t="s">
+        <v>50</v>
+      </c>
+      <c r="K74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I75)), ISNUMBER(SEARCH("first costs", $I75))), ISNUMBER(SEARCH("maximum damage", $I75))=FALSE), Cost_Database_Original!D74*0.6, Cost_Database_Original!D74)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E75" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I75)), ISNUMBER(SEARCH("first costs", $I75))), ISNUMBER(SEARCH("maximum damage", $I75))=FALSE), Cost_Database_Original!E74*0.6, Cost_Database_Original!E74)</f>
+        <v>59.488427132920947</v>
+      </c>
+      <c r="F75" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I75)), ISNUMBER(SEARCH("first costs", $I75))), ISNUMBER(SEARCH("maximum damage", $I75))=FALSE), Cost_Database_Original!F74*0.6, Cost_Database_Original!F74)</f>
+        <v>178.46528139876287</v>
+      </c>
+      <c r="G75" t="s">
+        <v>54</v>
+      </c>
+      <c r="H75" t="s">
+        <v>49</v>
+      </c>
+      <c r="I75" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" t="s">
+        <v>50</v>
+      </c>
+      <c r="K75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I76)), ISNUMBER(SEARCH("first costs", $I76))), ISNUMBER(SEARCH("maximum damage", $I76))=FALSE), Cost_Database_Original!D75*0.6, Cost_Database_Original!D75)</f>
+        <v>3447.8684148843909</v>
+      </c>
+      <c r="E76" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I76)), ISNUMBER(SEARCH("first costs", $I76))), ISNUMBER(SEARCH("maximum damage", $I76))=FALSE), Cost_Database_Original!E75*0.6, Cost_Database_Original!E75)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F76" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I76)), ISNUMBER(SEARCH("first costs", $I76))), ISNUMBER(SEARCH("maximum damage", $I76))=FALSE), Cost_Database_Original!F75*0.6, Cost_Database_Original!F75)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G76" t="s">
+        <v>54</v>
+      </c>
+      <c r="H76" t="s">
+        <v>132</v>
+      </c>
+      <c r="I76" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" t="s">
+        <v>133</v>
+      </c>
+      <c r="K76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I77)), ISNUMBER(SEARCH("first costs", $I77))), ISNUMBER(SEARCH("maximum damage", $I77))=FALSE), Cost_Database_Original!D76*0.6, Cost_Database_Original!D76)</f>
+        <v>804.50263013969129</v>
+      </c>
+      <c r="E77" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I77)), ISNUMBER(SEARCH("first costs", $I77))), ISNUMBER(SEARCH("maximum damage", $I77))=FALSE), Cost_Database_Original!E76*0.6, Cost_Database_Original!E76)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F77" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I77)), ISNUMBER(SEARCH("first costs", $I77))), ISNUMBER(SEARCH("maximum damage", $I77))=FALSE), Cost_Database_Original!F76*0.6, Cost_Database_Original!F76)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G77" t="s">
+        <v>54</v>
+      </c>
+      <c r="H77" t="s">
+        <v>132</v>
+      </c>
+      <c r="I77" t="s">
+        <v>29</v>
+      </c>
+      <c r="J77" t="s">
+        <v>133</v>
+      </c>
+      <c r="K77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I78)), ISNUMBER(SEARCH("first costs", $I78))), ISNUMBER(SEARCH("maximum damage", $I78))=FALSE), Cost_Database_Original!D77*0.6, Cost_Database_Original!D77)</f>
+        <v>396.50486771170495</v>
+      </c>
+      <c r="E78" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I78)), ISNUMBER(SEARCH("first costs", $I78))), ISNUMBER(SEARCH("maximum damage", $I78))=FALSE), Cost_Database_Original!E77*0.6, Cost_Database_Original!E77)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F78" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I78)), ISNUMBER(SEARCH("first costs", $I78))), ISNUMBER(SEARCH("maximum damage", $I78))=FALSE), Cost_Database_Original!F77*0.6, Cost_Database_Original!F77)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G78" t="s">
+        <v>54</v>
+      </c>
+      <c r="H78" t="s">
+        <v>132</v>
+      </c>
+      <c r="I78" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78" t="s">
+        <v>133</v>
+      </c>
+      <c r="K78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I79)), ISNUMBER(SEARCH("first costs", $I79))), ISNUMBER(SEARCH("maximum damage", $I79))=FALSE), Cost_Database_Original!D78*0.6, Cost_Database_Original!D78)</f>
+        <v>57.464473581406516</v>
+      </c>
+      <c r="E79" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I79)), ISNUMBER(SEARCH("first costs", $I79))), ISNUMBER(SEARCH("maximum damage", $I79))=FALSE), Cost_Database_Original!E78*0.6, Cost_Database_Original!E78)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F79" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I79)), ISNUMBER(SEARCH("first costs", $I79))), ISNUMBER(SEARCH("maximum damage", $I79))=FALSE), Cost_Database_Original!F78*0.6, Cost_Database_Original!F78)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G79" t="s">
+        <v>54</v>
+      </c>
+      <c r="H79" t="s">
+        <v>132</v>
+      </c>
+      <c r="I79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" t="s">
+        <v>133</v>
+      </c>
+      <c r="K79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I80)), ISNUMBER(SEARCH("first costs", $I80))), ISNUMBER(SEARCH("maximum damage", $I80))=FALSE), Cost_Database_Original!D79*0.6, Cost_Database_Original!D79)</f>
+        <v>68.957368297687822</v>
+      </c>
+      <c r="E80" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I80)), ISNUMBER(SEARCH("first costs", $I80))), ISNUMBER(SEARCH("maximum damage", $I80))=FALSE), Cost_Database_Original!E79*0.6, Cost_Database_Original!E79)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F80" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I80)), ISNUMBER(SEARCH("first costs", $I80))), ISNUMBER(SEARCH("maximum damage", $I80))=FALSE), Cost_Database_Original!F79*0.6, Cost_Database_Original!F79)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G80" t="s">
+        <v>54</v>
+      </c>
+      <c r="H80" t="s">
+        <v>132</v>
+      </c>
+      <c r="I80" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" t="s">
+        <v>133</v>
+      </c>
+      <c r="K80" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I81)), ISNUMBER(SEARCH("first costs", $I81))), ISNUMBER(SEARCH("maximum damage", $I81))=FALSE), Cost_Database_Original!D80*0.6, Cost_Database_Original!D80)</f>
+        <v>132958.69328682404</v>
+      </c>
+      <c r="E81" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I81)), ISNUMBER(SEARCH("first costs", $I81))), ISNUMBER(SEARCH("maximum damage", $I81))=FALSE), Cost_Database_Original!E80*0.6, Cost_Database_Original!E80)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F81" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I81)), ISNUMBER(SEARCH("first costs", $I81))), ISNUMBER(SEARCH("maximum damage", $I81))=FALSE), Cost_Database_Original!F80*0.6, Cost_Database_Original!F80)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G81" t="s">
+        <v>54</v>
+      </c>
+      <c r="H81" t="s">
+        <v>130</v>
+      </c>
+      <c r="I81" t="s">
+        <v>29</v>
+      </c>
+      <c r="J81" t="s">
+        <v>131</v>
+      </c>
+      <c r="K81" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I82)), ISNUMBER(SEARCH("first costs", $I82))), ISNUMBER(SEARCH("maximum damage", $I82))=FALSE), Cost_Database_Original!D81*0.6, Cost_Database_Original!D81)</f>
+        <v>22159.782214470677</v>
+      </c>
+      <c r="E82" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I82)), ISNUMBER(SEARCH("first costs", $I82))), ISNUMBER(SEARCH("maximum damage", $I82))=FALSE), Cost_Database_Original!E81*0.6, Cost_Database_Original!E81)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F82" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I82)), ISNUMBER(SEARCH("first costs", $I82))), ISNUMBER(SEARCH("maximum damage", $I82))=FALSE), Cost_Database_Original!F81*0.6, Cost_Database_Original!F81)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G82" t="s">
+        <v>54</v>
+      </c>
+      <c r="H82" t="s">
+        <v>130</v>
+      </c>
+      <c r="I82" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82" t="s">
+        <v>131</v>
+      </c>
+      <c r="K82" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I83)), ISNUMBER(SEARCH("first costs", $I83))), ISNUMBER(SEARCH("maximum damage", $I83))=FALSE), Cost_Database_Original!D82*0.6, Cost_Database_Original!D82)</f>
+        <v>1434.5869305260533</v>
+      </c>
+      <c r="E83" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I83)), ISNUMBER(SEARCH("first costs", $I83))), ISNUMBER(SEARCH("maximum damage", $I83))=FALSE), Cost_Database_Original!E82*0.6, Cost_Database_Original!E82)</f>
+        <v>1266.3939800505848</v>
+      </c>
+      <c r="F83" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I83)), ISNUMBER(SEARCH("first costs", $I83))), ISNUMBER(SEARCH("maximum damage", $I83))=FALSE), Cost_Database_Original!F82*0.6, Cost_Database_Original!F82)</f>
+        <v>1602.7798810015215</v>
+      </c>
+      <c r="G83" t="s">
+        <v>54</v>
+      </c>
+      <c r="H83" t="s">
+        <v>55</v>
+      </c>
+      <c r="I83" t="s">
+        <v>56</v>
+      </c>
+      <c r="J83" t="s">
+        <v>57</v>
+      </c>
+      <c r="K83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I84)), ISNUMBER(SEARCH("first costs", $I84))), ISNUMBER(SEARCH("maximum damage", $I84))=FALSE), Cost_Database_Original!D83*0.6, Cost_Database_Original!D83)</f>
+        <v>969.58289097622912</v>
+      </c>
+      <c r="E84" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I84)), ISNUMBER(SEARCH("first costs", $I84))), ISNUMBER(SEARCH("maximum damage", $I84))=FALSE), Cost_Database_Original!E83*0.6, Cost_Database_Original!E83)</f>
+        <v>860.75215831563185</v>
+      </c>
+      <c r="F84" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I84)), ISNUMBER(SEARCH("first costs", $I84))), ISNUMBER(SEARCH("maximum damage", $I84))=FALSE), Cost_Database_Original!F83*0.6, Cost_Database_Original!F83)</f>
+        <v>1078.4136236368263</v>
+      </c>
+      <c r="G84" t="s">
+        <v>54</v>
+      </c>
+      <c r="H84" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" t="s">
+        <v>56</v>
+      </c>
+      <c r="J84" t="s">
+        <v>57</v>
+      </c>
+      <c r="K84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I85)), ISNUMBER(SEARCH("first costs", $I85))), ISNUMBER(SEARCH("maximum damage", $I85))=FALSE), Cost_Database_Original!D84*0.6, Cost_Database_Original!D84)</f>
+        <v>267.12998016692023</v>
+      </c>
+      <c r="E85" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I85)), ISNUMBER(SEARCH("first costs", $I85))), ISNUMBER(SEARCH("maximum damage", $I85))=FALSE), Cost_Database_Original!E84*0.6, Cost_Database_Original!E84)</f>
+        <v>227.55516829033948</v>
+      </c>
+      <c r="F85" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I85)), ISNUMBER(SEARCH("first costs", $I85))), ISNUMBER(SEARCH("maximum damage", $I85))=FALSE), Cost_Database_Original!F84*0.6, Cost_Database_Original!F84)</f>
+        <v>306.70479204350107</v>
+      </c>
+      <c r="G85" t="s">
+        <v>54</v>
+      </c>
+      <c r="H85" t="s">
+        <v>55</v>
+      </c>
+      <c r="I85" t="s">
+        <v>56</v>
+      </c>
+      <c r="J85" t="s">
+        <v>57</v>
+      </c>
+      <c r="K85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" t="s">
+        <v>152</v>
+      </c>
+      <c r="D86" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I86)), ISNUMBER(SEARCH("first costs", $I86))), ISNUMBER(SEARCH("maximum damage", $I86))=FALSE), Cost_Database_Original!D85*0.6, Cost_Database_Original!D85)</f>
+        <v>41.196808769728179</v>
+      </c>
+      <c r="E86" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I86)), ISNUMBER(SEARCH("first costs", $I86))), ISNUMBER(SEARCH("maximum damage", $I86))=FALSE), Cost_Database_Original!E85*0.6, Cost_Database_Original!E85)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F86" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I86)), ISNUMBER(SEARCH("first costs", $I86))), ISNUMBER(SEARCH("maximum damage", $I86))=FALSE), Cost_Database_Original!F85*0.6, Cost_Database_Original!F85)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G86" t="s">
+        <v>54</v>
+      </c>
+      <c r="H86" t="s">
+        <v>130</v>
+      </c>
+      <c r="I86" t="s">
+        <v>144</v>
+      </c>
+      <c r="J86" t="s">
+        <v>153</v>
+      </c>
+      <c r="K86" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I87)), ISNUMBER(SEARCH("first costs", $I87))), ISNUMBER(SEARCH("maximum damage", $I87))=FALSE), Cost_Database_Original!D86*0.6, Cost_Database_Original!D86)</f>
+        <v>Refer to supplementary material of source for complete overview</v>
+      </c>
+      <c r="E87" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I87)), ISNUMBER(SEARCH("first costs", $I87))), ISNUMBER(SEARCH("maximum damage", $I87))=FALSE), Cost_Database_Original!E86*0.6, Cost_Database_Original!E86)</f>
+        <v>Refer to supplementary material of source for complete overview</v>
+      </c>
+      <c r="F87" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I87)), ISNUMBER(SEARCH("first costs", $I87))), ISNUMBER(SEARCH("maximum damage", $I87))=FALSE), Cost_Database_Original!F86*0.6, Cost_Database_Original!F86)</f>
+        <v>Refer to supplementary material of source for complete overview</v>
+      </c>
+      <c r="G87" t="s">
+        <v>44</v>
+      </c>
+      <c r="H87" t="s">
+        <v>45</v>
+      </c>
+      <c r="I87" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>46</v>
+      </c>
+      <c r="K87" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I88)), ISNUMBER(SEARCH("first costs", $I88))), ISNUMBER(SEARCH("maximum damage", $I88))=FALSE), Cost_Database_Original!D87*0.6, Cost_Database_Original!D87)</f>
+        <v>N/A</v>
+      </c>
+      <c r="E88" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I88)), ISNUMBER(SEARCH("first costs", $I88))), ISNUMBER(SEARCH("maximum damage", $I88))=FALSE), Cost_Database_Original!E87*0.6, Cost_Database_Original!E87)</f>
+        <v>12.885568719826292</v>
+      </c>
+      <c r="F88" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I88)), ISNUMBER(SEARCH("first costs", $I88))), ISNUMBER(SEARCH("maximum damage", $I88))=FALSE), Cost_Database_Original!F87*0.6, Cost_Database_Original!F87)</f>
+        <v>14.867963907491875</v>
+      </c>
+      <c r="G88" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" t="s">
+        <v>63</v>
+      </c>
+      <c r="I88" t="s">
+        <v>8</v>
+      </c>
+      <c r="J88" t="s">
+        <v>125</v>
+      </c>
+      <c r="K88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I89)), ISNUMBER(SEARCH("first costs", $I89))), ISNUMBER(SEARCH("maximum damage", $I89))=FALSE), Cost_Database_Original!D88*0.6, Cost_Database_Original!D88)</f>
+        <v>N/A</v>
+      </c>
+      <c r="E89" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I89)), ISNUMBER(SEARCH("first costs", $I89))), ISNUMBER(SEARCH("maximum damage", $I89))=FALSE), Cost_Database_Original!E88*0.6, Cost_Database_Original!E88)</f>
+        <v>84.25179547578729</v>
+      </c>
+      <c r="F89" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I89)), ISNUMBER(SEARCH("first costs", $I89))), ISNUMBER(SEARCH("maximum damage", $I89))=FALSE), Cost_Database_Original!F88*0.6, Cost_Database_Original!F88)</f>
+        <v>126.87329201059734</v>
+      </c>
+      <c r="G89" t="s">
+        <v>44</v>
+      </c>
+      <c r="H89" t="s">
+        <v>63</v>
+      </c>
+      <c r="I89" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" t="s">
+        <v>125</v>
+      </c>
+      <c r="K89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I90)), ISNUMBER(SEARCH("first costs", $I90))), ISNUMBER(SEARCH("maximum damage", $I90))=FALSE), Cost_Database_Original!D89*0.6, Cost_Database_Original!D89)</f>
+        <v>225.6575966676952</v>
+      </c>
+      <c r="E90" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I90)), ISNUMBER(SEARCH("first costs", $I90))), ISNUMBER(SEARCH("maximum damage", $I90))=FALSE), Cost_Database_Original!E89*0.6, Cost_Database_Original!E89)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F90" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I90)), ISNUMBER(SEARCH("first costs", $I90))), ISNUMBER(SEARCH("maximum damage", $I90))=FALSE), Cost_Database_Original!F89*0.6, Cost_Database_Original!F89)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G90" t="s">
+        <v>54</v>
+      </c>
+      <c r="H90" t="s">
+        <v>122</v>
+      </c>
+      <c r="I90" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>123</v>
+      </c>
+      <c r="K90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" t="s">
+        <v>215</v>
+      </c>
+      <c r="D91" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I91)), ISNUMBER(SEARCH("first costs", $I91))), ISNUMBER(SEARCH("maximum damage", $I91))=FALSE), Cost_Database_Original!D90*0.6, Cost_Database_Original!D90)</f>
+        <v>8860.6066884824359</v>
+      </c>
+      <c r="E91" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I91)), ISNUMBER(SEARCH("first costs", $I91))), ISNUMBER(SEARCH("maximum damage", $I91))=FALSE), Cost_Database_Original!E90*0.6, Cost_Database_Original!E90)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F91" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I91)), ISNUMBER(SEARCH("first costs", $I91))), ISNUMBER(SEARCH("maximum damage", $I91))=FALSE), Cost_Database_Original!F90*0.6, Cost_Database_Original!F90)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G91" t="s">
+        <v>54</v>
+      </c>
+      <c r="H91" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91" t="s">
+        <v>10</v>
+      </c>
+      <c r="J91" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" t="s">
+        <v>216</v>
+      </c>
+      <c r="D92" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I92)), ISNUMBER(SEARCH("first costs", $I92))), ISNUMBER(SEARCH("maximum damage", $I92))=FALSE), Cost_Database_Original!D91*0.6, Cost_Database_Original!D91)</f>
+        <v>4430.3033442412179</v>
+      </c>
+      <c r="E92" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I92)), ISNUMBER(SEARCH("first costs", $I92))), ISNUMBER(SEARCH("maximum damage", $I92))=FALSE), Cost_Database_Original!E91*0.6, Cost_Database_Original!E91)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F92" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I92)), ISNUMBER(SEARCH("first costs", $I92))), ISNUMBER(SEARCH("maximum damage", $I92))=FALSE), Cost_Database_Original!F91*0.6, Cost_Database_Original!F91)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G92" t="s">
+        <v>54</v>
+      </c>
+      <c r="H92" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92" t="s">
+        <v>10</v>
+      </c>
+      <c r="J92" t="s">
+        <v>25</v>
+      </c>
+      <c r="K92" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I93)), ISNUMBER(SEARCH("first costs", $I93))), ISNUMBER(SEARCH("maximum damage", $I93))=FALSE), Cost_Database_Original!D92*0.6, Cost_Database_Original!D92)</f>
+        <v>1134.7207981677495</v>
+      </c>
+      <c r="E93" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I93)), ISNUMBER(SEARCH("first costs", $I93))), ISNUMBER(SEARCH("maximum damage", $I93))=FALSE), Cost_Database_Original!E92*0.6, Cost_Database_Original!E92)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F93" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I93)), ISNUMBER(SEARCH("first costs", $I93))), ISNUMBER(SEARCH("maximum damage", $I93))=FALSE), Cost_Database_Original!F92*0.6, Cost_Database_Original!F92)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G93" t="s">
+        <v>44</v>
+      </c>
+      <c r="H93" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I94)), ISNUMBER(SEARCH("first costs", $I94))), ISNUMBER(SEARCH("maximum damage", $I94))=FALSE), Cost_Database_Original!D93*0.6, Cost_Database_Original!D93)</f>
+        <v>267.2991308698073</v>
+      </c>
+      <c r="E94" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I94)), ISNUMBER(SEARCH("first costs", $I94))), ISNUMBER(SEARCH("maximum damage", $I94))=FALSE), Cost_Database_Original!E93*0.6, Cost_Database_Original!E93)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F94" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I94)), ISNUMBER(SEARCH("first costs", $I94))), ISNUMBER(SEARCH("maximum damage", $I94))=FALSE), Cost_Database_Original!F93*0.6, Cost_Database_Original!F93)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G94" t="s">
+        <v>44</v>
+      </c>
+      <c r="H94" t="s">
+        <v>113</v>
+      </c>
+      <c r="I94" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>114</v>
+      </c>
+      <c r="K94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" t="s">
+        <v>161</v>
+      </c>
+      <c r="D95" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I95)), ISNUMBER(SEARCH("first costs", $I95))), ISNUMBER(SEARCH("maximum damage", $I95))=FALSE), Cost_Database_Original!D94*0.6, Cost_Database_Original!D94)</f>
+        <v>968.99999999999989</v>
+      </c>
+      <c r="E95" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I95)), ISNUMBER(SEARCH("first costs", $I95))), ISNUMBER(SEARCH("maximum damage", $I95))=FALSE), Cost_Database_Original!E94*0.6, Cost_Database_Original!E94)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F95" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I95)), ISNUMBER(SEARCH("first costs", $I95))), ISNUMBER(SEARCH("maximum damage", $I95))=FALSE), Cost_Database_Original!F94*0.6, Cost_Database_Original!F94)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" t="s">
+        <v>10</v>
+      </c>
+      <c r="J95" t="s">
+        <v>157</v>
+      </c>
+      <c r="K95" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I96)), ISNUMBER(SEARCH("first costs", $I96))), ISNUMBER(SEARCH("maximum damage", $I96))=FALSE), Cost_Database_Original!D95*0.6, Cost_Database_Original!D95)</f>
+        <v>1140000</v>
+      </c>
+      <c r="E96" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I96)), ISNUMBER(SEARCH("first costs", $I96))), ISNUMBER(SEARCH("maximum damage", $I96))=FALSE), Cost_Database_Original!E95*0.6, Cost_Database_Original!E95)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F96" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I96)), ISNUMBER(SEARCH("first costs", $I96))), ISNUMBER(SEARCH("maximum damage", $I96))=FALSE), Cost_Database_Original!F95*0.6, Cost_Database_Original!F95)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J96" t="s">
+        <v>157</v>
+      </c>
+      <c r="K96" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I97)), ISNUMBER(SEARCH("first costs", $I97))), ISNUMBER(SEARCH("maximum damage", $I97))=FALSE), Cost_Database_Original!D96*0.6, Cost_Database_Original!D96)</f>
+        <v>11136347.442025945</v>
+      </c>
+      <c r="E97" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I97)), ISNUMBER(SEARCH("first costs", $I97))), ISNUMBER(SEARCH("maximum damage", $I97))=FALSE), Cost_Database_Original!E96*0.6, Cost_Database_Original!E96)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F97" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I97)), ISNUMBER(SEARCH("first costs", $I97))), ISNUMBER(SEARCH("maximum damage", $I97))=FALSE), Cost_Database_Original!F96*0.6, Cost_Database_Original!F96)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97" t="s">
+        <v>10</v>
+      </c>
+      <c r="J97" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I98)), ISNUMBER(SEARCH("first costs", $I98))), ISNUMBER(SEARCH("maximum damage", $I98))=FALSE), Cost_Database_Original!D97*0.6, Cost_Database_Original!D97)</f>
+        <v>22272694.884051889</v>
+      </c>
+      <c r="E98" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I98)), ISNUMBER(SEARCH("first costs", $I98))), ISNUMBER(SEARCH("maximum damage", $I98))=FALSE), Cost_Database_Original!E97*0.6, Cost_Database_Original!E97)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F98" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I98)), ISNUMBER(SEARCH("first costs", $I98))), ISNUMBER(SEARCH("maximum damage", $I98))=FALSE), Cost_Database_Original!F97*0.6, Cost_Database_Original!F97)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>9</v>
+      </c>
+      <c r="I98" t="s">
+        <v>10</v>
+      </c>
+      <c r="J98" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I99)), ISNUMBER(SEARCH("first costs", $I99))), ISNUMBER(SEARCH("maximum damage", $I99))=FALSE), Cost_Database_Original!D98*0.6, Cost_Database_Original!D98)</f>
+        <v>55681737.21012973</v>
+      </c>
+      <c r="E99" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I99)), ISNUMBER(SEARCH("first costs", $I99))), ISNUMBER(SEARCH("maximum damage", $I99))=FALSE), Cost_Database_Original!E98*0.6, Cost_Database_Original!E98)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F99" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I99)), ISNUMBER(SEARCH("first costs", $I99))), ISNUMBER(SEARCH("maximum damage", $I99))=FALSE), Cost_Database_Original!F98*0.6, Cost_Database_Original!F98)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I99" t="s">
+        <v>10</v>
+      </c>
+      <c r="J99" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D100" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I100)), ISNUMBER(SEARCH("first costs", $I100))), ISNUMBER(SEARCH("maximum damage", $I100))=FALSE), Cost_Database_Original!D99*0.6, Cost_Database_Original!D99)</f>
+        <v>4430303.3442412177</v>
+      </c>
+      <c r="E100" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I100)), ISNUMBER(SEARCH("first costs", $I100))), ISNUMBER(SEARCH("maximum damage", $I100))=FALSE), Cost_Database_Original!E99*0.6, Cost_Database_Original!E99)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F100" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I100)), ISNUMBER(SEARCH("first costs", $I100))), ISNUMBER(SEARCH("maximum damage", $I100))=FALSE), Cost_Database_Original!F99*0.6, Cost_Database_Original!F99)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>9</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>280</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D101" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I101)), ISNUMBER(SEARCH("first costs", $I101))), ISNUMBER(SEARCH("maximum damage", $I101))=FALSE), Cost_Database_Original!D100*0.6, Cost_Database_Original!D100)</f>
+        <v>886.06066884824361</v>
+      </c>
+      <c r="E101" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I101)), ISNUMBER(SEARCH("first costs", $I101))), ISNUMBER(SEARCH("maximum damage", $I101))=FALSE), Cost_Database_Original!E100*0.6, Cost_Database_Original!E100)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F101" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I101)), ISNUMBER(SEARCH("first costs", $I101))), ISNUMBER(SEARCH("maximum damage", $I101))=FALSE), Cost_Database_Original!F100*0.6, Cost_Database_Original!F100)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G101" t="s">
+        <v>279</v>
+      </c>
+      <c r="H101" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>280</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D102" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I102)), ISNUMBER(SEARCH("first costs", $I102))), ISNUMBER(SEARCH("maximum damage", $I102))=FALSE), Cost_Database_Original!D101*0.6, Cost_Database_Original!D101)</f>
+        <v>886.06066884824361</v>
+      </c>
+      <c r="E102" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I102)), ISNUMBER(SEARCH("first costs", $I102))), ISNUMBER(SEARCH("maximum damage", $I102))=FALSE), Cost_Database_Original!E101*0.6, Cost_Database_Original!E101)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F102" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I102)), ISNUMBER(SEARCH("first costs", $I102))), ISNUMBER(SEARCH("maximum damage", $I102))=FALSE), Cost_Database_Original!F101*0.6, Cost_Database_Original!F101)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G102" t="s">
+        <v>279</v>
+      </c>
+      <c r="H102" t="s">
+        <v>9</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>178</v>
+      </c>
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I103)), ISNUMBER(SEARCH("first costs", $I103))), ISNUMBER(SEARCH("maximum damage", $I103))=FALSE), Cost_Database_Original!D102*0.6, Cost_Database_Original!D102)</f>
+        <v>1196.6335726814075</v>
+      </c>
+      <c r="E103" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I103)), ISNUMBER(SEARCH("first costs", $I103))), ISNUMBER(SEARCH("maximum damage", $I103))=FALSE), Cost_Database_Original!E102*0.6, Cost_Database_Original!E102)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F103" s="4" t="e">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I103)), ISNUMBER(SEARCH("first costs", $I103))), ISNUMBER(SEARCH("maximum damage", $I103))=FALSE), Cost_Database_Original!F102*0.6, Cost_Database_Original!F102)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G103" t="s">
+        <v>54</v>
+      </c>
+      <c r="H103" t="s">
+        <v>28</v>
+      </c>
+      <c r="I103" t="s">
+        <v>29</v>
+      </c>
+      <c r="J103" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I104)), ISNUMBER(SEARCH("first costs", $I104))), ISNUMBER(SEARCH("maximum damage", $I104))=FALSE), Cost_Database_Original!D103*0.6, Cost_Database_Original!D103)</f>
+        <v>6442581.4994479679</v>
+      </c>
+      <c r="E104" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I104)), ISNUMBER(SEARCH("first costs", $I104))), ISNUMBER(SEARCH("maximum damage", $I104))=FALSE), Cost_Database_Original!E103*0.6, Cost_Database_Original!E103)</f>
+        <v>118724.43562974232</v>
+      </c>
+      <c r="F104" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I104)), ISNUMBER(SEARCH("first costs", $I104))), ISNUMBER(SEARCH("maximum damage", $I104))=FALSE), Cost_Database_Original!F103*0.6, Cost_Database_Original!F103)</f>
+        <v>296811089.07435584</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>55</v>
+      </c>
+      <c r="I104" t="s">
+        <v>98</v>
+      </c>
+      <c r="J104" t="s">
+        <v>57</v>
+      </c>
+      <c r="K104" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I105)), ISNUMBER(SEARCH("first costs", $I105))), ISNUMBER(SEARCH("maximum damage", $I105))=FALSE), Cost_Database_Original!D104*0.6, Cost_Database_Original!D104)</f>
+        <v>123613456.60648797</v>
+      </c>
+      <c r="E105" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I105)), ISNUMBER(SEARCH("first costs", $I105))), ISNUMBER(SEARCH("maximum damage", $I105))=FALSE), Cost_Database_Original!E104*0.6, Cost_Database_Original!E104)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F105" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I105)), ISNUMBER(SEARCH("first costs", $I105))), ISNUMBER(SEARCH("maximum damage", $I105))=FALSE), Cost_Database_Original!F104*0.6, Cost_Database_Original!F104)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>9</v>
+      </c>
+      <c r="I105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J105" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>94</v>
+      </c>
+      <c r="C106" t="s">
+        <v>197</v>
+      </c>
+      <c r="D106" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I106)), ISNUMBER(SEARCH("first costs", $I106))), ISNUMBER(SEARCH("maximum damage", $I106))=FALSE), Cost_Database_Original!D105*0.6, Cost_Database_Original!D105)</f>
+        <v>1329091.0032723653</v>
+      </c>
+      <c r="E106" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I106)), ISNUMBER(SEARCH("first costs", $I106))), ISNUMBER(SEARCH("maximum damage", $I106))=FALSE), Cost_Database_Original!E105*0.6, Cost_Database_Original!E105)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F106" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I106)), ISNUMBER(SEARCH("first costs", $I106))), ISNUMBER(SEARCH("maximum damage", $I106))=FALSE), Cost_Database_Original!F105*0.6, Cost_Database_Original!F105)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>9</v>
+      </c>
+      <c r="I106" t="s">
+        <v>10</v>
+      </c>
+      <c r="J106" t="s">
+        <v>25</v>
+      </c>
+      <c r="K106" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" t="s">
+        <v>198</v>
+      </c>
+      <c r="D107" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I107)), ISNUMBER(SEARCH("first costs", $I107))), ISNUMBER(SEARCH("maximum damage", $I107))=FALSE), Cost_Database_Original!D106*0.6, Cost_Database_Original!D106)</f>
+        <v>708848.53507859481</v>
+      </c>
+      <c r="E107" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I107)), ISNUMBER(SEARCH("first costs", $I107))), ISNUMBER(SEARCH("maximum damage", $I107))=FALSE), Cost_Database_Original!E106*0.6, Cost_Database_Original!E106)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F107" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I107)), ISNUMBER(SEARCH("first costs", $I107))), ISNUMBER(SEARCH("maximum damage", $I107))=FALSE), Cost_Database_Original!F106*0.6, Cost_Database_Original!F106)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" t="s">
+        <v>9</v>
+      </c>
+      <c r="I107" t="s">
+        <v>10</v>
+      </c>
+      <c r="J107" t="s">
+        <v>25</v>
+      </c>
+      <c r="K107" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" t="s">
+        <v>199</v>
+      </c>
+      <c r="D108" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I108)), ISNUMBER(SEARCH("first costs", $I108))), ISNUMBER(SEARCH("maximum damage", $I108))=FALSE), Cost_Database_Original!D107*0.6, Cost_Database_Original!D107)</f>
+        <v>26581.820065447304</v>
+      </c>
+      <c r="E108" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I108)), ISNUMBER(SEARCH("first costs", $I108))), ISNUMBER(SEARCH("maximum damage", $I108))=FALSE), Cost_Database_Original!E107*0.6, Cost_Database_Original!E107)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F108" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I108)), ISNUMBER(SEARCH("first costs", $I108))), ISNUMBER(SEARCH("maximum damage", $I108))=FALSE), Cost_Database_Original!F107*0.6, Cost_Database_Original!F107)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G108" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" t="s">
+        <v>9</v>
+      </c>
+      <c r="I108" t="s">
+        <v>10</v>
+      </c>
+      <c r="J108" t="s">
+        <v>25</v>
+      </c>
+      <c r="K108" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>94</v>
+      </c>
+      <c r="C109" t="s">
+        <v>200</v>
+      </c>
+      <c r="D109" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I109)), ISNUMBER(SEARCH("first costs", $I109))), ISNUMBER(SEARCH("maximum damage", $I109))=FALSE), Cost_Database_Original!D108*0.6, Cost_Database_Original!D108)</f>
+        <v>708848.53507859481</v>
+      </c>
+      <c r="E109" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I109)), ISNUMBER(SEARCH("first costs", $I109))), ISNUMBER(SEARCH("maximum damage", $I109))=FALSE), Cost_Database_Original!E108*0.6, Cost_Database_Original!E108)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F109" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I109)), ISNUMBER(SEARCH("first costs", $I109))), ISNUMBER(SEARCH("maximum damage", $I109))=FALSE), Cost_Database_Original!F108*0.6, Cost_Database_Original!F108)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" t="s">
+        <v>10</v>
+      </c>
+      <c r="J109" t="s">
+        <v>25</v>
+      </c>
+      <c r="K109" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>94</v>
+      </c>
+      <c r="C110" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I110)), ISNUMBER(SEARCH("first costs", $I110))), ISNUMBER(SEARCH("maximum damage", $I110))=FALSE), Cost_Database_Original!D109*0.6, Cost_Database_Original!D109)</f>
+        <v>1329091.0032723653</v>
+      </c>
+      <c r="E110" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I110)), ISNUMBER(SEARCH("first costs", $I110))), ISNUMBER(SEARCH("maximum damage", $I110))=FALSE), Cost_Database_Original!E109*0.6, Cost_Database_Original!E109)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F110" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I110)), ISNUMBER(SEARCH("first costs", $I110))), ISNUMBER(SEARCH("maximum damage", $I110))=FALSE), Cost_Database_Original!F109*0.6, Cost_Database_Original!F109)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>9</v>
+      </c>
+      <c r="I110" t="s">
+        <v>10</v>
+      </c>
+      <c r="J110" t="s">
+        <v>25</v>
+      </c>
+      <c r="K110" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" t="s">
+        <v>202</v>
+      </c>
+      <c r="D111" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I111)), ISNUMBER(SEARCH("first costs", $I111))), ISNUMBER(SEARCH("maximum damage", $I111))=FALSE), Cost_Database_Original!D110*0.6, Cost_Database_Original!D110)</f>
+        <v>26581820.065447308</v>
+      </c>
+      <c r="E111" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I111)), ISNUMBER(SEARCH("first costs", $I111))), ISNUMBER(SEARCH("maximum damage", $I111))=FALSE), Cost_Database_Original!E110*0.6, Cost_Database_Original!E110)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F111" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I111)), ISNUMBER(SEARCH("first costs", $I111))), ISNUMBER(SEARCH("maximum damage", $I111))=FALSE), Cost_Database_Original!F110*0.6, Cost_Database_Original!F110)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" t="s">
+        <v>9</v>
+      </c>
+      <c r="I111" t="s">
+        <v>10</v>
+      </c>
+      <c r="J111" t="s">
+        <v>25</v>
+      </c>
+      <c r="K111" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>95</v>
+      </c>
+      <c r="C112" t="s">
+        <v>203</v>
+      </c>
+      <c r="D112" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I112)), ISNUMBER(SEARCH("first costs", $I112))), ISNUMBER(SEARCH("maximum damage", $I112))=FALSE), Cost_Database_Original!D111*0.6, Cost_Database_Original!D111)</f>
+        <v>88606066.88482435</v>
+      </c>
+      <c r="E112" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I112)), ISNUMBER(SEARCH("first costs", $I112))), ISNUMBER(SEARCH("maximum damage", $I112))=FALSE), Cost_Database_Original!E111*0.6, Cost_Database_Original!E111)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F112" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I112)), ISNUMBER(SEARCH("first costs", $I112))), ISNUMBER(SEARCH("maximum damage", $I112))=FALSE), Cost_Database_Original!F111*0.6, Cost_Database_Original!F111)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" t="s">
+        <v>9</v>
+      </c>
+      <c r="I112" t="s">
+        <v>10</v>
+      </c>
+      <c r="J112" t="s">
+        <v>25</v>
+      </c>
+      <c r="K112" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>95</v>
+      </c>
+      <c r="C113" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I113)), ISNUMBER(SEARCH("first costs", $I113))), ISNUMBER(SEARCH("maximum damage", $I113))=FALSE), Cost_Database_Original!D112*0.6, Cost_Database_Original!D112)</f>
+        <v>318981840.78536767</v>
+      </c>
+      <c r="E113" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I113)), ISNUMBER(SEARCH("first costs", $I113))), ISNUMBER(SEARCH("maximum damage", $I113))=FALSE), Cost_Database_Original!E112*0.6, Cost_Database_Original!E112)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F113" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I113)), ISNUMBER(SEARCH("first costs", $I113))), ISNUMBER(SEARCH("maximum damage", $I113))=FALSE), Cost_Database_Original!F112*0.6, Cost_Database_Original!F112)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" t="s">
+        <v>9</v>
+      </c>
+      <c r="I113" t="s">
+        <v>10</v>
+      </c>
+      <c r="J113" t="s">
+        <v>25</v>
+      </c>
+      <c r="K113" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>176</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I114)), ISNUMBER(SEARCH("first costs", $I114))), ISNUMBER(SEARCH("maximum damage", $I114))=FALSE), Cost_Database_Original!D113*0.6, Cost_Database_Original!D113)</f>
+        <v>354424.26753929741</v>
+      </c>
+      <c r="E114" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I114)), ISNUMBER(SEARCH("first costs", $I114))), ISNUMBER(SEARCH("maximum damage", $I114))=FALSE), Cost_Database_Original!E113*0.6, Cost_Database_Original!E113)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F114" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I114)), ISNUMBER(SEARCH("first costs", $I114))), ISNUMBER(SEARCH("maximum damage", $I114))=FALSE), Cost_Database_Original!F113*0.6, Cost_Database_Original!F113)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" t="s">
+        <v>9</v>
+      </c>
+      <c r="I114" t="s">
+        <v>10</v>
+      </c>
+      <c r="J114" t="s">
+        <v>25</v>
+      </c>
+      <c r="K114" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I115)), ISNUMBER(SEARCH("first costs", $I115))), ISNUMBER(SEARCH("maximum damage", $I115))=FALSE), Cost_Database_Original!D114*0.6, Cost_Database_Original!D114)</f>
+        <v>1994999.9999999998</v>
+      </c>
+      <c r="E115" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I115)), ISNUMBER(SEARCH("first costs", $I115))), ISNUMBER(SEARCH("maximum damage", $I115))=FALSE), Cost_Database_Original!E114*0.6, Cost_Database_Original!E114)</f>
+        <v>1481999.9999999998</v>
+      </c>
+      <c r="F115" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I115)), ISNUMBER(SEARCH("first costs", $I115))), ISNUMBER(SEARCH("maximum damage", $I115))=FALSE), Cost_Database_Original!F114*0.6, Cost_Database_Original!F114)</f>
+        <v>2508000</v>
+      </c>
+      <c r="G115" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" t="s">
+        <v>9</v>
+      </c>
+      <c r="I115" t="s">
+        <v>160</v>
+      </c>
+      <c r="J115" t="s">
+        <v>157</v>
+      </c>
+      <c r="K115" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I116)), ISNUMBER(SEARCH("first costs", $I116))), ISNUMBER(SEARCH("maximum damage", $I116))=FALSE), Cost_Database_Original!D115*0.6, Cost_Database_Original!D115)</f>
+        <v>704652.64525793085</v>
+      </c>
+      <c r="E116" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I116)), ISNUMBER(SEARCH("first costs", $I116))), ISNUMBER(SEARCH("maximum damage", $I116))=FALSE), Cost_Database_Original!E115*0.6, Cost_Database_Original!E115)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F116" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I116)), ISNUMBER(SEARCH("first costs", $I116))), ISNUMBER(SEARCH("maximum damage", $I116))=FALSE), Cost_Database_Original!F115*0.6, Cost_Database_Original!F115)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116" t="s">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>17</v>
+      </c>
+      <c r="K116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>296</v>
+      </c>
+      <c r="D117" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I117)), ISNUMBER(SEARCH("first costs", $I117))), ISNUMBER(SEARCH("maximum damage", $I117))=FALSE), Cost_Database_Original!D116*0.6, Cost_Database_Original!D116)</f>
+        <v>4446000</v>
+      </c>
+      <c r="E117" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I117)), ISNUMBER(SEARCH("first costs", $I117))), ISNUMBER(SEARCH("maximum damage", $I117))=FALSE), Cost_Database_Original!E116*0.6, Cost_Database_Original!E116)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F117" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I117)), ISNUMBER(SEARCH("first costs", $I117))), ISNUMBER(SEARCH("maximum damage", $I117))=FALSE), Cost_Database_Original!F116*0.6, Cost_Database_Original!F116)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G117" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" t="s">
+        <v>295</v>
+      </c>
+      <c r="I117" t="s">
+        <v>292</v>
+      </c>
+      <c r="J117" t="s">
+        <v>293</v>
+      </c>
+      <c r="K117" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>297</v>
+      </c>
+      <c r="D118" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I118)), ISNUMBER(SEARCH("first costs", $I118))), ISNUMBER(SEARCH("maximum damage", $I118))=FALSE), Cost_Database_Original!D117*0.6, Cost_Database_Original!D117)</f>
+        <v>143149800</v>
+      </c>
+      <c r="E118" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I118)), ISNUMBER(SEARCH("first costs", $I118))), ISNUMBER(SEARCH("maximum damage", $I118))=FALSE), Cost_Database_Original!E117*0.6, Cost_Database_Original!E117)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F118" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I118)), ISNUMBER(SEARCH("first costs", $I118))), ISNUMBER(SEARCH("maximum damage", $I118))=FALSE), Cost_Database_Original!F117*0.6, Cost_Database_Original!F117)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" t="s">
+        <v>295</v>
+      </c>
+      <c r="I118" t="s">
+        <v>292</v>
+      </c>
+      <c r="J118" t="s">
+        <v>293</v>
+      </c>
+      <c r="K118" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>298</v>
+      </c>
+      <c r="D119" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I119)), ISNUMBER(SEARCH("first costs", $I119))), ISNUMBER(SEARCH("maximum damage", $I119))=FALSE), Cost_Database_Original!D118*0.6, Cost_Database_Original!D118)</f>
+        <v>175286399.99999997</v>
+      </c>
+      <c r="E119" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I119)), ISNUMBER(SEARCH("first costs", $I119))), ISNUMBER(SEARCH("maximum damage", $I119))=FALSE), Cost_Database_Original!E118*0.6, Cost_Database_Original!E118)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F119" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I119)), ISNUMBER(SEARCH("first costs", $I119))), ISNUMBER(SEARCH("maximum damage", $I119))=FALSE), Cost_Database_Original!F118*0.6, Cost_Database_Original!F118)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" t="s">
+        <v>295</v>
+      </c>
+      <c r="I119" t="s">
+        <v>292</v>
+      </c>
+      <c r="J119" t="s">
+        <v>293</v>
+      </c>
+      <c r="K119" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>299</v>
+      </c>
+      <c r="D120" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I120)), ISNUMBER(SEARCH("first costs", $I120))), ISNUMBER(SEARCH("maximum damage", $I120))=FALSE), Cost_Database_Original!D119*0.6, Cost_Database_Original!D119)</f>
+        <v>106977599.99999999</v>
+      </c>
+      <c r="E120" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I120)), ISNUMBER(SEARCH("first costs", $I120))), ISNUMBER(SEARCH("maximum damage", $I120))=FALSE), Cost_Database_Original!E119*0.6, Cost_Database_Original!E119)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F120" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I120)), ISNUMBER(SEARCH("first costs", $I120))), ISNUMBER(SEARCH("maximum damage", $I120))=FALSE), Cost_Database_Original!F119*0.6, Cost_Database_Original!F119)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" t="s">
+        <v>295</v>
+      </c>
+      <c r="I120" t="s">
+        <v>292</v>
+      </c>
+      <c r="J120" t="s">
+        <v>293</v>
+      </c>
+      <c r="K120" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>300</v>
+      </c>
+      <c r="D121" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I121)), ISNUMBER(SEARCH("first costs", $I121))), ISNUMBER(SEARCH("maximum damage", $I121))=FALSE), Cost_Database_Original!D120*0.6, Cost_Database_Original!D120)</f>
+        <v>172345200</v>
+      </c>
+      <c r="E121" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I121)), ISNUMBER(SEARCH("first costs", $I121))), ISNUMBER(SEARCH("maximum damage", $I121))=FALSE), Cost_Database_Original!E120*0.6, Cost_Database_Original!E120)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F121" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I121)), ISNUMBER(SEARCH("first costs", $I121))), ISNUMBER(SEARCH("maximum damage", $I121))=FALSE), Cost_Database_Original!F120*0.6, Cost_Database_Original!F120)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>295</v>
+      </c>
+      <c r="I121" t="s">
+        <v>292</v>
+      </c>
+      <c r="J121" t="s">
+        <v>293</v>
+      </c>
+      <c r="K121" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>301</v>
+      </c>
+      <c r="D122" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I122)), ISNUMBER(SEARCH("first costs", $I122))), ISNUMBER(SEARCH("maximum damage", $I122))=FALSE), Cost_Database_Original!D121*0.6, Cost_Database_Original!D121)</f>
+        <v>45554399.999999993</v>
+      </c>
+      <c r="E122" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I122)), ISNUMBER(SEARCH("first costs", $I122))), ISNUMBER(SEARCH("maximum damage", $I122))=FALSE), Cost_Database_Original!E121*0.6, Cost_Database_Original!E121)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F122" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I122)), ISNUMBER(SEARCH("first costs", $I122))), ISNUMBER(SEARCH("maximum damage", $I122))=FALSE), Cost_Database_Original!F121*0.6, Cost_Database_Original!F121)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" t="s">
+        <v>295</v>
+      </c>
+      <c r="I122" t="s">
+        <v>292</v>
+      </c>
+      <c r="J122" t="s">
+        <v>293</v>
+      </c>
+      <c r="K122" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>302</v>
+      </c>
+      <c r="D123" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I123)), ISNUMBER(SEARCH("first costs", $I123))), ISNUMBER(SEARCH("maximum damage", $I123))=FALSE), Cost_Database_Original!D122*0.6, Cost_Database_Original!D122)</f>
+        <v>117077999.99999999</v>
+      </c>
+      <c r="E123" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I123)), ISNUMBER(SEARCH("first costs", $I123))), ISNUMBER(SEARCH("maximum damage", $I123))=FALSE), Cost_Database_Original!E122*0.6, Cost_Database_Original!E122)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F123" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I123)), ISNUMBER(SEARCH("first costs", $I123))), ISNUMBER(SEARCH("maximum damage", $I123))=FALSE), Cost_Database_Original!F122*0.6, Cost_Database_Original!F122)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" t="s">
+        <v>295</v>
+      </c>
+      <c r="I123" t="s">
+        <v>292</v>
+      </c>
+      <c r="J123" t="s">
+        <v>293</v>
+      </c>
+      <c r="K123" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>303</v>
+      </c>
+      <c r="D124" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I124)), ISNUMBER(SEARCH("first costs", $I124))), ISNUMBER(SEARCH("maximum damage", $I124))=FALSE), Cost_Database_Original!D123*0.6, Cost_Database_Original!D123)</f>
+        <v>64216199.999999993</v>
+      </c>
+      <c r="E124" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I124)), ISNUMBER(SEARCH("first costs", $I124))), ISNUMBER(SEARCH("maximum damage", $I124))=FALSE), Cost_Database_Original!E123*0.6, Cost_Database_Original!E123)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F124" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I124)), ISNUMBER(SEARCH("first costs", $I124))), ISNUMBER(SEARCH("maximum damage", $I124))=FALSE), Cost_Database_Original!F123*0.6, Cost_Database_Original!F123)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>295</v>
+      </c>
+      <c r="I124" t="s">
+        <v>292</v>
+      </c>
+      <c r="J124" t="s">
+        <v>293</v>
+      </c>
+      <c r="K124" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>304</v>
+      </c>
+      <c r="D125" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I125)), ISNUMBER(SEARCH("first costs", $I125))), ISNUMBER(SEARCH("maximum damage", $I125))=FALSE), Cost_Database_Original!D124*0.6, Cost_Database_Original!D124)</f>
+        <v>364754399.99999994</v>
+      </c>
+      <c r="E125" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I125)), ISNUMBER(SEARCH("first costs", $I125))), ISNUMBER(SEARCH("maximum damage", $I125))=FALSE), Cost_Database_Original!E124*0.6, Cost_Database_Original!E124)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F125" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I125)), ISNUMBER(SEARCH("first costs", $I125))), ISNUMBER(SEARCH("maximum damage", $I125))=FALSE), Cost_Database_Original!F124*0.6, Cost_Database_Original!F124)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G125" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" t="s">
+        <v>295</v>
+      </c>
+      <c r="I125" t="s">
+        <v>292</v>
+      </c>
+      <c r="J125" t="s">
+        <v>293</v>
+      </c>
+      <c r="K125" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>305</v>
+      </c>
+      <c r="D126" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I126)), ISNUMBER(SEARCH("first costs", $I126))), ISNUMBER(SEARCH("maximum damage", $I126))=FALSE), Cost_Database_Original!D125*0.6, Cost_Database_Original!D125)</f>
+        <v>92123399.999999985</v>
+      </c>
+      <c r="E126" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I126)), ISNUMBER(SEARCH("first costs", $I126))), ISNUMBER(SEARCH("maximum damage", $I126))=FALSE), Cost_Database_Original!E125*0.6, Cost_Database_Original!E125)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F126" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I126)), ISNUMBER(SEARCH("first costs", $I126))), ISNUMBER(SEARCH("maximum damage", $I126))=FALSE), Cost_Database_Original!F125*0.6, Cost_Database_Original!F125)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" t="s">
+        <v>295</v>
+      </c>
+      <c r="I126" t="s">
+        <v>292</v>
+      </c>
+      <c r="J126" t="s">
+        <v>293</v>
+      </c>
+      <c r="K126" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>306</v>
+      </c>
+      <c r="D127" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I127)), ISNUMBER(SEARCH("first costs", $I127))), ISNUMBER(SEARCH("maximum damage", $I127))=FALSE), Cost_Database_Original!D126*0.6, Cost_Database_Original!D126)</f>
+        <v>95041799.999999985</v>
+      </c>
+      <c r="E127" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I127)), ISNUMBER(SEARCH("first costs", $I127))), ISNUMBER(SEARCH("maximum damage", $I127))=FALSE), Cost_Database_Original!E126*0.6, Cost_Database_Original!E126)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F127" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I127)), ISNUMBER(SEARCH("first costs", $I127))), ISNUMBER(SEARCH("maximum damage", $I127))=FALSE), Cost_Database_Original!F126*0.6, Cost_Database_Original!F126)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" t="s">
+        <v>295</v>
+      </c>
+      <c r="I127" t="s">
+        <v>292</v>
+      </c>
+      <c r="J127" t="s">
+        <v>293</v>
+      </c>
+      <c r="K127" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>307</v>
+      </c>
+      <c r="D128" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I128)), ISNUMBER(SEARCH("first costs", $I128))), ISNUMBER(SEARCH("maximum damage", $I128))=FALSE), Cost_Database_Original!D127*0.6, Cost_Database_Original!D127)</f>
+        <v>89900399.999999985</v>
+      </c>
+      <c r="E128" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I128)), ISNUMBER(SEARCH("first costs", $I128))), ISNUMBER(SEARCH("maximum damage", $I128))=FALSE), Cost_Database_Original!E127*0.6, Cost_Database_Original!E127)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F128" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I128)), ISNUMBER(SEARCH("first costs", $I128))), ISNUMBER(SEARCH("maximum damage", $I128))=FALSE), Cost_Database_Original!F127*0.6, Cost_Database_Original!F127)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" t="s">
+        <v>295</v>
+      </c>
+      <c r="I128" t="s">
+        <v>292</v>
+      </c>
+      <c r="J128" t="s">
+        <v>293</v>
+      </c>
+      <c r="K128" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>308</v>
+      </c>
+      <c r="D129" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I129)), ISNUMBER(SEARCH("first costs", $I129))), ISNUMBER(SEARCH("maximum damage", $I129))=FALSE), Cost_Database_Original!D128*0.6, Cost_Database_Original!D128)</f>
+        <v>81122400</v>
+      </c>
+      <c r="E129" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I129)), ISNUMBER(SEARCH("first costs", $I129))), ISNUMBER(SEARCH("maximum damage", $I129))=FALSE), Cost_Database_Original!E128*0.6, Cost_Database_Original!E128)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F129" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I129)), ISNUMBER(SEARCH("first costs", $I129))), ISNUMBER(SEARCH("maximum damage", $I129))=FALSE), Cost_Database_Original!F128*0.6, Cost_Database_Original!F128)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" t="s">
+        <v>295</v>
+      </c>
+      <c r="I129" t="s">
+        <v>292</v>
+      </c>
+      <c r="J129" t="s">
+        <v>293</v>
+      </c>
+      <c r="K129" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>309</v>
+      </c>
+      <c r="D130" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I130)), ISNUMBER(SEARCH("first costs", $I130))), ISNUMBER(SEARCH("maximum damage", $I130))=FALSE), Cost_Database_Original!D129*0.6, Cost_Database_Original!D129)</f>
+        <v>86719800</v>
+      </c>
+      <c r="E130" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I130)), ISNUMBER(SEARCH("first costs", $I130))), ISNUMBER(SEARCH("maximum damage", $I130))=FALSE), Cost_Database_Original!E129*0.6, Cost_Database_Original!E129)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F130" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I130)), ISNUMBER(SEARCH("first costs", $I130))), ISNUMBER(SEARCH("maximum damage", $I130))=FALSE), Cost_Database_Original!F129*0.6, Cost_Database_Original!F129)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s">
+        <v>295</v>
+      </c>
+      <c r="I130" t="s">
+        <v>292</v>
+      </c>
+      <c r="J130" t="s">
+        <v>293</v>
+      </c>
+      <c r="K130" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>310</v>
+      </c>
+      <c r="D131" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I131)), ISNUMBER(SEARCH("first costs", $I131))), ISNUMBER(SEARCH("maximum damage", $I131))=FALSE), Cost_Database_Original!D130*0.6, Cost_Database_Original!D130)</f>
+        <v>52029599.999999993</v>
+      </c>
+      <c r="E131" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I131)), ISNUMBER(SEARCH("first costs", $I131))), ISNUMBER(SEARCH("maximum damage", $I131))=FALSE), Cost_Database_Original!E130*0.6, Cost_Database_Original!E130)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F131" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I131)), ISNUMBER(SEARCH("first costs", $I131))), ISNUMBER(SEARCH("maximum damage", $I131))=FALSE), Cost_Database_Original!F130*0.6, Cost_Database_Original!F130)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" t="s">
+        <v>295</v>
+      </c>
+      <c r="I131" t="s">
+        <v>292</v>
+      </c>
+      <c r="J131" t="s">
+        <v>293</v>
+      </c>
+      <c r="K131" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>311</v>
+      </c>
+      <c r="D132" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I132)), ISNUMBER(SEARCH("first costs", $I132))), ISNUMBER(SEARCH("maximum damage", $I132))=FALSE), Cost_Database_Original!D131*0.6, Cost_Database_Original!D131)</f>
+        <v>211184999.99999997</v>
+      </c>
+      <c r="E132" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I132)), ISNUMBER(SEARCH("first costs", $I132))), ISNUMBER(SEARCH("maximum damage", $I132))=FALSE), Cost_Database_Original!E131*0.6, Cost_Database_Original!E131)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F132" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I132)), ISNUMBER(SEARCH("first costs", $I132))), ISNUMBER(SEARCH("maximum damage", $I132))=FALSE), Cost_Database_Original!F131*0.6, Cost_Database_Original!F131)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" t="s">
+        <v>295</v>
+      </c>
+      <c r="I132" t="s">
+        <v>292</v>
+      </c>
+      <c r="J132" t="s">
+        <v>293</v>
+      </c>
+      <c r="K132" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>312</v>
+      </c>
+      <c r="D133" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I133)), ISNUMBER(SEARCH("first costs", $I133))), ISNUMBER(SEARCH("maximum damage", $I133))=FALSE), Cost_Database_Original!D132*0.6, Cost_Database_Original!D132)</f>
+        <v>294860999.99999994</v>
+      </c>
+      <c r="E133" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I133)), ISNUMBER(SEARCH("first costs", $I133))), ISNUMBER(SEARCH("maximum damage", $I133))=FALSE), Cost_Database_Original!E132*0.6, Cost_Database_Original!E132)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F133" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I133)), ISNUMBER(SEARCH("first costs", $I133))), ISNUMBER(SEARCH("maximum damage", $I133))=FALSE), Cost_Database_Original!F132*0.6, Cost_Database_Original!F132)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" t="s">
+        <v>295</v>
+      </c>
+      <c r="I133" t="s">
+        <v>292</v>
+      </c>
+      <c r="J133" t="s">
+        <v>293</v>
+      </c>
+      <c r="K133" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>312</v>
+      </c>
+      <c r="D134" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I134)), ISNUMBER(SEARCH("first costs", $I134))), ISNUMBER(SEARCH("maximum damage", $I134))=FALSE), Cost_Database_Original!D133*0.6, Cost_Database_Original!D133)</f>
+        <v>294860999.99999994</v>
+      </c>
+      <c r="E134" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I134)), ISNUMBER(SEARCH("first costs", $I134))), ISNUMBER(SEARCH("maximum damage", $I134))=FALSE), Cost_Database_Original!E133*0.6, Cost_Database_Original!E133)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F134" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I134)), ISNUMBER(SEARCH("first costs", $I134))), ISNUMBER(SEARCH("maximum damage", $I134))=FALSE), Cost_Database_Original!F133*0.6, Cost_Database_Original!F133)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" t="s">
+        <v>295</v>
+      </c>
+      <c r="I134" t="s">
+        <v>292</v>
+      </c>
+      <c r="J134" t="s">
+        <v>293</v>
+      </c>
+      <c r="K134" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>312</v>
+      </c>
+      <c r="D135" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I135)), ISNUMBER(SEARCH("first costs", $I135))), ISNUMBER(SEARCH("maximum damage", $I135))=FALSE), Cost_Database_Original!D134*0.6, Cost_Database_Original!D134)</f>
+        <v>294860999.99999994</v>
+      </c>
+      <c r="E135" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I135)), ISNUMBER(SEARCH("first costs", $I135))), ISNUMBER(SEARCH("maximum damage", $I135))=FALSE), Cost_Database_Original!E134*0.6, Cost_Database_Original!E134)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F135" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I135)), ISNUMBER(SEARCH("first costs", $I135))), ISNUMBER(SEARCH("maximum damage", $I135))=FALSE), Cost_Database_Original!F134*0.6, Cost_Database_Original!F134)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" t="s">
+        <v>295</v>
+      </c>
+      <c r="I135" t="s">
+        <v>292</v>
+      </c>
+      <c r="J135" t="s">
+        <v>293</v>
+      </c>
+      <c r="K135" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>313</v>
+      </c>
+      <c r="D136" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I136)), ISNUMBER(SEARCH("first costs", $I136))), ISNUMBER(SEARCH("maximum damage", $I136))=FALSE), Cost_Database_Original!D135*0.6, Cost_Database_Original!D135)</f>
+        <v>141303000</v>
+      </c>
+      <c r="E136" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I136)), ISNUMBER(SEARCH("first costs", $I136))), ISNUMBER(SEARCH("maximum damage", $I136))=FALSE), Cost_Database_Original!E135*0.6, Cost_Database_Original!E135)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F136" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I136)), ISNUMBER(SEARCH("first costs", $I136))), ISNUMBER(SEARCH("maximum damage", $I136))=FALSE), Cost_Database_Original!F135*0.6, Cost_Database_Original!F135)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s">
+        <v>295</v>
+      </c>
+      <c r="I136" t="s">
+        <v>292</v>
+      </c>
+      <c r="J136" t="s">
+        <v>293</v>
+      </c>
+      <c r="K136" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>314</v>
+      </c>
+      <c r="D137" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I137)), ISNUMBER(SEARCH("first costs", $I137))), ISNUMBER(SEARCH("maximum damage", $I137))=FALSE), Cost_Database_Original!D136*0.6, Cost_Database_Original!D136)</f>
+        <v>216668399.99999997</v>
+      </c>
+      <c r="E137" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I137)), ISNUMBER(SEARCH("first costs", $I137))), ISNUMBER(SEARCH("maximum damage", $I137))=FALSE), Cost_Database_Original!E136*0.6, Cost_Database_Original!E136)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F137" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I137)), ISNUMBER(SEARCH("first costs", $I137))), ISNUMBER(SEARCH("maximum damage", $I137))=FALSE), Cost_Database_Original!F136*0.6, Cost_Database_Original!F136)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" t="s">
+        <v>295</v>
+      </c>
+      <c r="I137" t="s">
+        <v>292</v>
+      </c>
+      <c r="J137" t="s">
+        <v>293</v>
+      </c>
+      <c r="K137" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>315</v>
+      </c>
+      <c r="D138" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I138)), ISNUMBER(SEARCH("first costs", $I138))), ISNUMBER(SEARCH("maximum damage", $I138))=FALSE), Cost_Database_Original!D137*0.6, Cost_Database_Original!D137)</f>
+        <v>256522799.99999997</v>
+      </c>
+      <c r="E138" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I138)), ISNUMBER(SEARCH("first costs", $I138))), ISNUMBER(SEARCH("maximum damage", $I138))=FALSE), Cost_Database_Original!E137*0.6, Cost_Database_Original!E137)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F138" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I138)), ISNUMBER(SEARCH("first costs", $I138))), ISNUMBER(SEARCH("maximum damage", $I138))=FALSE), Cost_Database_Original!F137*0.6, Cost_Database_Original!F137)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" t="s">
+        <v>295</v>
+      </c>
+      <c r="I138" t="s">
+        <v>292</v>
+      </c>
+      <c r="J138" t="s">
+        <v>293</v>
+      </c>
+      <c r="K138" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>316</v>
+      </c>
+      <c r="D139" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I139)), ISNUMBER(SEARCH("first costs", $I139))), ISNUMBER(SEARCH("maximum damage", $I139))=FALSE), Cost_Database_Original!D138*0.6, Cost_Database_Original!D138)</f>
+        <v>131088599.99999999</v>
+      </c>
+      <c r="E139" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I139)), ISNUMBER(SEARCH("first costs", $I139))), ISNUMBER(SEARCH("maximum damage", $I139))=FALSE), Cost_Database_Original!E138*0.6, Cost_Database_Original!E138)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F139" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I139)), ISNUMBER(SEARCH("first costs", $I139))), ISNUMBER(SEARCH("maximum damage", $I139))=FALSE), Cost_Database_Original!F138*0.6, Cost_Database_Original!F138)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G139" t="s">
+        <v>14</v>
+      </c>
+      <c r="H139" t="s">
+        <v>295</v>
+      </c>
+      <c r="I139" t="s">
+        <v>292</v>
+      </c>
+      <c r="J139" t="s">
+        <v>293</v>
+      </c>
+      <c r="K139" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>317</v>
+      </c>
+      <c r="D140" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I140)), ISNUMBER(SEARCH("first costs", $I140))), ISNUMBER(SEARCH("maximum damage", $I140))=FALSE), Cost_Database_Original!D139*0.6, Cost_Database_Original!D139)</f>
+        <v>21682800</v>
+      </c>
+      <c r="E140" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I140)), ISNUMBER(SEARCH("first costs", $I140))), ISNUMBER(SEARCH("maximum damage", $I140))=FALSE), Cost_Database_Original!E139*0.6, Cost_Database_Original!E139)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F140" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I140)), ISNUMBER(SEARCH("first costs", $I140))), ISNUMBER(SEARCH("maximum damage", $I140))=FALSE), Cost_Database_Original!F139*0.6, Cost_Database_Original!F139)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G140" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" t="s">
+        <v>295</v>
+      </c>
+      <c r="I140" t="s">
+        <v>292</v>
+      </c>
+      <c r="J140" t="s">
+        <v>293</v>
+      </c>
+      <c r="K140" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>318</v>
+      </c>
+      <c r="D141" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I141)), ISNUMBER(SEARCH("first costs", $I141))), ISNUMBER(SEARCH("maximum damage", $I141))=FALSE), Cost_Database_Original!D140*0.6, Cost_Database_Original!D140)</f>
+        <v>143092800</v>
+      </c>
+      <c r="E141" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I141)), ISNUMBER(SEARCH("first costs", $I141))), ISNUMBER(SEARCH("maximum damage", $I141))=FALSE), Cost_Database_Original!E140*0.6, Cost_Database_Original!E140)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F141" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I141)), ISNUMBER(SEARCH("first costs", $I141))), ISNUMBER(SEARCH("maximum damage", $I141))=FALSE), Cost_Database_Original!F140*0.6, Cost_Database_Original!F140)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" t="s">
+        <v>295</v>
+      </c>
+      <c r="I141" t="s">
+        <v>292</v>
+      </c>
+      <c r="J141" t="s">
+        <v>293</v>
+      </c>
+      <c r="K141" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>319</v>
+      </c>
+      <c r="D142" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I142)), ISNUMBER(SEARCH("first costs", $I142))), ISNUMBER(SEARCH("maximum damage", $I142))=FALSE), Cost_Database_Original!D141*0.6, Cost_Database_Original!D141)</f>
+        <v>257480399.99999997</v>
+      </c>
+      <c r="E142" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I142)), ISNUMBER(SEARCH("first costs", $I142))), ISNUMBER(SEARCH("maximum damage", $I142))=FALSE), Cost_Database_Original!E141*0.6, Cost_Database_Original!E141)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F142" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I142)), ISNUMBER(SEARCH("first costs", $I142))), ISNUMBER(SEARCH("maximum damage", $I142))=FALSE), Cost_Database_Original!F141*0.6, Cost_Database_Original!F141)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" t="s">
+        <v>295</v>
+      </c>
+      <c r="I142" t="s">
+        <v>292</v>
+      </c>
+      <c r="J142" t="s">
+        <v>293</v>
+      </c>
+      <c r="K142" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>320</v>
+      </c>
+      <c r="D143" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I143)), ISNUMBER(SEARCH("first costs", $I143))), ISNUMBER(SEARCH("maximum damage", $I143))=FALSE), Cost_Database_Original!D142*0.6, Cost_Database_Original!D142)</f>
+        <v>76733400</v>
+      </c>
+      <c r="E143" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I143)), ISNUMBER(SEARCH("first costs", $I143))), ISNUMBER(SEARCH("maximum damage", $I143))=FALSE), Cost_Database_Original!E142*0.6, Cost_Database_Original!E142)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F143" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I143)), ISNUMBER(SEARCH("first costs", $I143))), ISNUMBER(SEARCH("maximum damage", $I143))=FALSE), Cost_Database_Original!F142*0.6, Cost_Database_Original!F142)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" t="s">
+        <v>295</v>
+      </c>
+      <c r="I143" t="s">
+        <v>292</v>
+      </c>
+      <c r="J143" t="s">
+        <v>293</v>
+      </c>
+      <c r="K143" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>321</v>
+      </c>
+      <c r="D144" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I144)), ISNUMBER(SEARCH("first costs", $I144))), ISNUMBER(SEARCH("maximum damage", $I144))=FALSE), Cost_Database_Original!D143*0.6, Cost_Database_Original!D143)</f>
+        <v>372677399.99999994</v>
+      </c>
+      <c r="E144" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I144)), ISNUMBER(SEARCH("first costs", $I144))), ISNUMBER(SEARCH("maximum damage", $I144))=FALSE), Cost_Database_Original!E143*0.6, Cost_Database_Original!E143)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F144" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I144)), ISNUMBER(SEARCH("first costs", $I144))), ISNUMBER(SEARCH("maximum damage", $I144))=FALSE), Cost_Database_Original!F143*0.6, Cost_Database_Original!F143)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s">
+        <v>295</v>
+      </c>
+      <c r="I144" t="s">
+        <v>292</v>
+      </c>
+      <c r="J144" t="s">
+        <v>293</v>
+      </c>
+      <c r="K144" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>322</v>
+      </c>
+      <c r="D145" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I145)), ISNUMBER(SEARCH("first costs", $I145))), ISNUMBER(SEARCH("maximum damage", $I145))=FALSE), Cost_Database_Original!D144*0.6, Cost_Database_Original!D144)</f>
+        <v>251198999.99999997</v>
+      </c>
+      <c r="E145" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I145)), ISNUMBER(SEARCH("first costs", $I145))), ISNUMBER(SEARCH("maximum damage", $I145))=FALSE), Cost_Database_Original!E144*0.6, Cost_Database_Original!E144)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F145" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I145)), ISNUMBER(SEARCH("first costs", $I145))), ISNUMBER(SEARCH("maximum damage", $I145))=FALSE), Cost_Database_Original!F144*0.6, Cost_Database_Original!F144)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G145" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" t="s">
+        <v>295</v>
+      </c>
+      <c r="I145" t="s">
+        <v>292</v>
+      </c>
+      <c r="J145" t="s">
+        <v>293</v>
+      </c>
+      <c r="K145" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>323</v>
+      </c>
+      <c r="D146" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I146)), ISNUMBER(SEARCH("first costs", $I146))), ISNUMBER(SEARCH("maximum damage", $I146))=FALSE), Cost_Database_Original!D145*0.6, Cost_Database_Original!D145)</f>
+        <v>137301600</v>
+      </c>
+      <c r="E146" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I146)), ISNUMBER(SEARCH("first costs", $I146))), ISNUMBER(SEARCH("maximum damage", $I146))=FALSE), Cost_Database_Original!E145*0.6, Cost_Database_Original!E145)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F146" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I146)), ISNUMBER(SEARCH("first costs", $I146))), ISNUMBER(SEARCH("maximum damage", $I146))=FALSE), Cost_Database_Original!F145*0.6, Cost_Database_Original!F145)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G146" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" t="s">
+        <v>295</v>
+      </c>
+      <c r="I146" t="s">
+        <v>292</v>
+      </c>
+      <c r="J146" t="s">
+        <v>293</v>
+      </c>
+      <c r="K146" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>324</v>
+      </c>
+      <c r="D147" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I147)), ISNUMBER(SEARCH("first costs", $I147))), ISNUMBER(SEARCH("maximum damage", $I147))=FALSE), Cost_Database_Original!D146*0.6, Cost_Database_Original!D146)</f>
+        <v>858556799.99999988</v>
+      </c>
+      <c r="E147" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I147)), ISNUMBER(SEARCH("first costs", $I147))), ISNUMBER(SEARCH("maximum damage", $I147))=FALSE), Cost_Database_Original!E146*0.6, Cost_Database_Original!E146)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F147" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I147)), ISNUMBER(SEARCH("first costs", $I147))), ISNUMBER(SEARCH("maximum damage", $I147))=FALSE), Cost_Database_Original!F146*0.6, Cost_Database_Original!F146)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G147" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" t="s">
+        <v>295</v>
+      </c>
+      <c r="I147" t="s">
+        <v>292</v>
+      </c>
+      <c r="J147" t="s">
+        <v>293</v>
+      </c>
+      <c r="K147" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>325</v>
+      </c>
+      <c r="D148" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I148)), ISNUMBER(SEARCH("first costs", $I148))), ISNUMBER(SEARCH("maximum damage", $I148))=FALSE), Cost_Database_Original!D147*0.6, Cost_Database_Original!D147)</f>
+        <v>104104799.99999999</v>
+      </c>
+      <c r="E148" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I148)), ISNUMBER(SEARCH("first costs", $I148))), ISNUMBER(SEARCH("maximum damage", $I148))=FALSE), Cost_Database_Original!E147*0.6, Cost_Database_Original!E147)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F148" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I148)), ISNUMBER(SEARCH("first costs", $I148))), ISNUMBER(SEARCH("maximum damage", $I148))=FALSE), Cost_Database_Original!F147*0.6, Cost_Database_Original!F147)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G148" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" t="s">
+        <v>295</v>
+      </c>
+      <c r="I148" t="s">
+        <v>292</v>
+      </c>
+      <c r="J148" t="s">
+        <v>293</v>
+      </c>
+      <c r="K148" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>326</v>
+      </c>
+      <c r="D149" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I149)), ISNUMBER(SEARCH("first costs", $I149))), ISNUMBER(SEARCH("maximum damage", $I149))=FALSE), Cost_Database_Original!D148*0.6, Cost_Database_Original!D148)</f>
+        <v>69380400</v>
+      </c>
+      <c r="E149" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I149)), ISNUMBER(SEARCH("first costs", $I149))), ISNUMBER(SEARCH("maximum damage", $I149))=FALSE), Cost_Database_Original!E148*0.6, Cost_Database_Original!E148)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F149" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I149)), ISNUMBER(SEARCH("first costs", $I149))), ISNUMBER(SEARCH("maximum damage", $I149))=FALSE), Cost_Database_Original!F148*0.6, Cost_Database_Original!F148)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G149" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" t="s">
+        <v>295</v>
+      </c>
+      <c r="I149" t="s">
+        <v>292</v>
+      </c>
+      <c r="J149" t="s">
+        <v>293</v>
+      </c>
+      <c r="K149" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>327</v>
+      </c>
+      <c r="D150" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I150)), ISNUMBER(SEARCH("first costs", $I150))), ISNUMBER(SEARCH("maximum damage", $I150))=FALSE), Cost_Database_Original!D149*0.6, Cost_Database_Original!D149)</f>
+        <v>207046799.99999997</v>
+      </c>
+      <c r="E150" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I150)), ISNUMBER(SEARCH("first costs", $I150))), ISNUMBER(SEARCH("maximum damage", $I150))=FALSE), Cost_Database_Original!E149*0.6, Cost_Database_Original!E149)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F150" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I150)), ISNUMBER(SEARCH("first costs", $I150))), ISNUMBER(SEARCH("maximum damage", $I150))=FALSE), Cost_Database_Original!F149*0.6, Cost_Database_Original!F149)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G150" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" t="s">
+        <v>295</v>
+      </c>
+      <c r="I150" t="s">
+        <v>292</v>
+      </c>
+      <c r="J150" t="s">
+        <v>293</v>
+      </c>
+      <c r="K150" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>327</v>
+      </c>
+      <c r="D151" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I151)), ISNUMBER(SEARCH("first costs", $I151))), ISNUMBER(SEARCH("maximum damage", $I151))=FALSE), Cost_Database_Original!D150*0.6, Cost_Database_Original!D150)</f>
+        <v>207046799.99999997</v>
+      </c>
+      <c r="E151" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I151)), ISNUMBER(SEARCH("first costs", $I151))), ISNUMBER(SEARCH("maximum damage", $I151))=FALSE), Cost_Database_Original!E150*0.6, Cost_Database_Original!E150)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F151" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I151)), ISNUMBER(SEARCH("first costs", $I151))), ISNUMBER(SEARCH("maximum damage", $I151))=FALSE), Cost_Database_Original!F150*0.6, Cost_Database_Original!F150)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G151" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" t="s">
+        <v>295</v>
+      </c>
+      <c r="I151" t="s">
+        <v>292</v>
+      </c>
+      <c r="J151" t="s">
+        <v>293</v>
+      </c>
+      <c r="K151" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>328</v>
+      </c>
+      <c r="D152" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I152)), ISNUMBER(SEARCH("first costs", $I152))), ISNUMBER(SEARCH("maximum damage", $I152))=FALSE), Cost_Database_Original!D151*0.6, Cost_Database_Original!D151)</f>
+        <v>1846799.9999999998</v>
+      </c>
+      <c r="E152" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I152)), ISNUMBER(SEARCH("first costs", $I152))), ISNUMBER(SEARCH("maximum damage", $I152))=FALSE), Cost_Database_Original!E151*0.6, Cost_Database_Original!E151)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F152" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I152)), ISNUMBER(SEARCH("first costs", $I152))), ISNUMBER(SEARCH("maximum damage", $I152))=FALSE), Cost_Database_Original!F151*0.6, Cost_Database_Original!F151)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G152" t="s">
+        <v>14</v>
+      </c>
+      <c r="H152" t="s">
+        <v>295</v>
+      </c>
+      <c r="I152" t="s">
+        <v>292</v>
+      </c>
+      <c r="J152" t="s">
+        <v>293</v>
+      </c>
+      <c r="K152" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>329</v>
+      </c>
+      <c r="D153" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I153)), ISNUMBER(SEARCH("first costs", $I153))), ISNUMBER(SEARCH("maximum damage", $I153))=FALSE), Cost_Database_Original!D152*0.6, Cost_Database_Original!D152)</f>
+        <v>20702400</v>
+      </c>
+      <c r="E153" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I153)), ISNUMBER(SEARCH("first costs", $I153))), ISNUMBER(SEARCH("maximum damage", $I153))=FALSE), Cost_Database_Original!E152*0.6, Cost_Database_Original!E152)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F153" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I153)), ISNUMBER(SEARCH("first costs", $I153))), ISNUMBER(SEARCH("maximum damage", $I153))=FALSE), Cost_Database_Original!F152*0.6, Cost_Database_Original!F152)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G153" t="s">
+        <v>14</v>
+      </c>
+      <c r="H153" t="s">
+        <v>295</v>
+      </c>
+      <c r="I153" t="s">
+        <v>292</v>
+      </c>
+      <c r="J153" t="s">
+        <v>293</v>
+      </c>
+      <c r="K153" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>330</v>
+      </c>
+      <c r="D154" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I154)), ISNUMBER(SEARCH("first costs", $I154))), ISNUMBER(SEARCH("maximum damage", $I154))=FALSE), Cost_Database_Original!D153*0.6, Cost_Database_Original!D153)</f>
+        <v>222721799.99999997</v>
+      </c>
+      <c r="E154" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I154)), ISNUMBER(SEARCH("first costs", $I154))), ISNUMBER(SEARCH("maximum damage", $I154))=FALSE), Cost_Database_Original!E153*0.6, Cost_Database_Original!E153)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F154" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I154)), ISNUMBER(SEARCH("first costs", $I154))), ISNUMBER(SEARCH("maximum damage", $I154))=FALSE), Cost_Database_Original!F153*0.6, Cost_Database_Original!F153)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G154" t="s">
+        <v>14</v>
+      </c>
+      <c r="H154" t="s">
+        <v>295</v>
+      </c>
+      <c r="I154" t="s">
+        <v>292</v>
+      </c>
+      <c r="J154" t="s">
+        <v>293</v>
+      </c>
+      <c r="K154" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>331</v>
+      </c>
+      <c r="D155" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I155)), ISNUMBER(SEARCH("first costs", $I155))), ISNUMBER(SEARCH("maximum damage", $I155))=FALSE), Cost_Database_Original!D154*0.6, Cost_Database_Original!D154)</f>
+        <v>17339400</v>
+      </c>
+      <c r="E155" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I155)), ISNUMBER(SEARCH("first costs", $I155))), ISNUMBER(SEARCH("maximum damage", $I155))=FALSE), Cost_Database_Original!E154*0.6, Cost_Database_Original!E154)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F155" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I155)), ISNUMBER(SEARCH("first costs", $I155))), ISNUMBER(SEARCH("maximum damage", $I155))=FALSE), Cost_Database_Original!F154*0.6, Cost_Database_Original!F154)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G155" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" t="s">
+        <v>295</v>
+      </c>
+      <c r="I155" t="s">
+        <v>292</v>
+      </c>
+      <c r="J155" t="s">
+        <v>293</v>
+      </c>
+      <c r="K155" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>332</v>
+      </c>
+      <c r="D156" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I156)), ISNUMBER(SEARCH("first costs", $I156))), ISNUMBER(SEARCH("maximum damage", $I156))=FALSE), Cost_Database_Original!D155*0.6, Cost_Database_Original!D155)</f>
+        <v>34690200</v>
+      </c>
+      <c r="E156" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I156)), ISNUMBER(SEARCH("first costs", $I156))), ISNUMBER(SEARCH("maximum damage", $I156))=FALSE), Cost_Database_Original!E155*0.6, Cost_Database_Original!E155)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F156" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I156)), ISNUMBER(SEARCH("first costs", $I156))), ISNUMBER(SEARCH("maximum damage", $I156))=FALSE), Cost_Database_Original!F155*0.6, Cost_Database_Original!F155)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G156" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" t="s">
+        <v>295</v>
+      </c>
+      <c r="I156" t="s">
+        <v>292</v>
+      </c>
+      <c r="J156" t="s">
+        <v>293</v>
+      </c>
+      <c r="K156" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>333</v>
+      </c>
+      <c r="D157" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I157)), ISNUMBER(SEARCH("first costs", $I157))), ISNUMBER(SEARCH("maximum damage", $I157))=FALSE), Cost_Database_Original!D156*0.6, Cost_Database_Original!D156)</f>
+        <v>38737200</v>
+      </c>
+      <c r="E157" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I157)), ISNUMBER(SEARCH("first costs", $I157))), ISNUMBER(SEARCH("maximum damage", $I157))=FALSE), Cost_Database_Original!E156*0.6, Cost_Database_Original!E156)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F157" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I157)), ISNUMBER(SEARCH("first costs", $I157))), ISNUMBER(SEARCH("maximum damage", $I157))=FALSE), Cost_Database_Original!F156*0.6, Cost_Database_Original!F156)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G157" t="s">
+        <v>14</v>
+      </c>
+      <c r="H157" t="s">
+        <v>295</v>
+      </c>
+      <c r="I157" t="s">
+        <v>292</v>
+      </c>
+      <c r="J157" t="s">
+        <v>293</v>
+      </c>
+      <c r="K157" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>334</v>
+      </c>
+      <c r="D158" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I158)), ISNUMBER(SEARCH("first costs", $I158))), ISNUMBER(SEARCH("maximum damage", $I158))=FALSE), Cost_Database_Original!D157*0.6, Cost_Database_Original!D157)</f>
+        <v>380919599.99999994</v>
+      </c>
+      <c r="E158" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I158)), ISNUMBER(SEARCH("first costs", $I158))), ISNUMBER(SEARCH("maximum damage", $I158))=FALSE), Cost_Database_Original!E157*0.6, Cost_Database_Original!E157)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F158" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I158)), ISNUMBER(SEARCH("first costs", $I158))), ISNUMBER(SEARCH("maximum damage", $I158))=FALSE), Cost_Database_Original!F157*0.6, Cost_Database_Original!F157)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G158" t="s">
+        <v>14</v>
+      </c>
+      <c r="H158" t="s">
+        <v>295</v>
+      </c>
+      <c r="I158" t="s">
+        <v>292</v>
+      </c>
+      <c r="J158" t="s">
+        <v>293</v>
+      </c>
+      <c r="K158" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>334</v>
+      </c>
+      <c r="D159" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I159)), ISNUMBER(SEARCH("first costs", $I159))), ISNUMBER(SEARCH("maximum damage", $I159))=FALSE), Cost_Database_Original!D158*0.6, Cost_Database_Original!D158)</f>
+        <v>380919599.99999994</v>
+      </c>
+      <c r="E159" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I159)), ISNUMBER(SEARCH("first costs", $I159))), ISNUMBER(SEARCH("maximum damage", $I159))=FALSE), Cost_Database_Original!E158*0.6, Cost_Database_Original!E158)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F159" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I159)), ISNUMBER(SEARCH("first costs", $I159))), ISNUMBER(SEARCH("maximum damage", $I159))=FALSE), Cost_Database_Original!F158*0.6, Cost_Database_Original!F158)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G159" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" t="s">
+        <v>295</v>
+      </c>
+      <c r="I159" t="s">
+        <v>292</v>
+      </c>
+      <c r="J159" t="s">
+        <v>293</v>
+      </c>
+      <c r="K159" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>335</v>
+      </c>
+      <c r="D160" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I160)), ISNUMBER(SEARCH("first costs", $I160))), ISNUMBER(SEARCH("maximum damage", $I160))=FALSE), Cost_Database_Original!D159*0.6, Cost_Database_Original!D159)</f>
+        <v>130085399.99999999</v>
+      </c>
+      <c r="E160" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I160)), ISNUMBER(SEARCH("first costs", $I160))), ISNUMBER(SEARCH("maximum damage", $I160))=FALSE), Cost_Database_Original!E159*0.6, Cost_Database_Original!E159)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F160" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I160)), ISNUMBER(SEARCH("first costs", $I160))), ISNUMBER(SEARCH("maximum damage", $I160))=FALSE), Cost_Database_Original!F159*0.6, Cost_Database_Original!F159)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G160" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" t="s">
+        <v>295</v>
+      </c>
+      <c r="I160" t="s">
+        <v>292</v>
+      </c>
+      <c r="J160" t="s">
+        <v>293</v>
+      </c>
+      <c r="K160" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" t="s">
+        <v>336</v>
+      </c>
+      <c r="D161" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I161)), ISNUMBER(SEARCH("first costs", $I161))), ISNUMBER(SEARCH("maximum damage", $I161))=FALSE), Cost_Database_Original!D160*0.6, Cost_Database_Original!D160)</f>
+        <v>71079000</v>
+      </c>
+      <c r="E161" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I161)), ISNUMBER(SEARCH("first costs", $I161))), ISNUMBER(SEARCH("maximum damage", $I161))=FALSE), Cost_Database_Original!E160*0.6, Cost_Database_Original!E160)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F161" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I161)), ISNUMBER(SEARCH("first costs", $I161))), ISNUMBER(SEARCH("maximum damage", $I161))=FALSE), Cost_Database_Original!F160*0.6, Cost_Database_Original!F160)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G161" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" t="s">
+        <v>295</v>
+      </c>
+      <c r="I161" t="s">
+        <v>292</v>
+      </c>
+      <c r="J161" t="s">
+        <v>293</v>
+      </c>
+      <c r="K161" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s">
+        <v>337</v>
+      </c>
+      <c r="D162" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I162)), ISNUMBER(SEARCH("first costs", $I162))), ISNUMBER(SEARCH("maximum damage", $I162))=FALSE), Cost_Database_Original!D161*0.6, Cost_Database_Original!D161)</f>
+        <v>507904199.99999994</v>
+      </c>
+      <c r="E162" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I162)), ISNUMBER(SEARCH("first costs", $I162))), ISNUMBER(SEARCH("maximum damage", $I162))=FALSE), Cost_Database_Original!E161*0.6, Cost_Database_Original!E161)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F162" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I162)), ISNUMBER(SEARCH("first costs", $I162))), ISNUMBER(SEARCH("maximum damage", $I162))=FALSE), Cost_Database_Original!F161*0.6, Cost_Database_Original!F161)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G162" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" t="s">
+        <v>295</v>
+      </c>
+      <c r="I162" t="s">
+        <v>292</v>
+      </c>
+      <c r="J162" t="s">
+        <v>293</v>
+      </c>
+      <c r="K162" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>336</v>
+      </c>
+      <c r="D163" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I163)), ISNUMBER(SEARCH("first costs", $I163))), ISNUMBER(SEARCH("maximum damage", $I163))=FALSE), Cost_Database_Original!D162*0.6, Cost_Database_Original!D162)</f>
+        <v>71079000</v>
+      </c>
+      <c r="E163" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I163)), ISNUMBER(SEARCH("first costs", $I163))), ISNUMBER(SEARCH("maximum damage", $I163))=FALSE), Cost_Database_Original!E162*0.6, Cost_Database_Original!E162)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F163" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I163)), ISNUMBER(SEARCH("first costs", $I163))), ISNUMBER(SEARCH("maximum damage", $I163))=FALSE), Cost_Database_Original!F162*0.6, Cost_Database_Original!F162)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G163" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" t="s">
+        <v>295</v>
+      </c>
+      <c r="I163" t="s">
+        <v>292</v>
+      </c>
+      <c r="J163" t="s">
+        <v>293</v>
+      </c>
+      <c r="K163" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>338</v>
+      </c>
+      <c r="D164" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I164)), ISNUMBER(SEARCH("first costs", $I164))), ISNUMBER(SEARCH("maximum damage", $I164))=FALSE), Cost_Database_Original!D163*0.6, Cost_Database_Original!D163)</f>
+        <v>112643399.99999999</v>
+      </c>
+      <c r="E164" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I164)), ISNUMBER(SEARCH("first costs", $I164))), ISNUMBER(SEARCH("maximum damage", $I164))=FALSE), Cost_Database_Original!E163*0.6, Cost_Database_Original!E163)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F164" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I164)), ISNUMBER(SEARCH("first costs", $I164))), ISNUMBER(SEARCH("maximum damage", $I164))=FALSE), Cost_Database_Original!F163*0.6, Cost_Database_Original!F163)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G164" t="s">
+        <v>14</v>
+      </c>
+      <c r="H164" t="s">
+        <v>295</v>
+      </c>
+      <c r="I164" t="s">
+        <v>292</v>
+      </c>
+      <c r="J164" t="s">
+        <v>293</v>
+      </c>
+      <c r="K164" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>339</v>
+      </c>
+      <c r="D165" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I165)), ISNUMBER(SEARCH("first costs", $I165))), ISNUMBER(SEARCH("maximum damage", $I165))=FALSE), Cost_Database_Original!D164*0.6, Cost_Database_Original!D164)</f>
+        <v>154139400</v>
+      </c>
+      <c r="E165" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I165)), ISNUMBER(SEARCH("first costs", $I165))), ISNUMBER(SEARCH("maximum damage", $I165))=FALSE), Cost_Database_Original!E164*0.6, Cost_Database_Original!E164)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F165" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I165)), ISNUMBER(SEARCH("first costs", $I165))), ISNUMBER(SEARCH("maximum damage", $I165))=FALSE), Cost_Database_Original!F164*0.6, Cost_Database_Original!F164)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G165" t="s">
+        <v>14</v>
+      </c>
+      <c r="H165" t="s">
+        <v>295</v>
+      </c>
+      <c r="I165" t="s">
+        <v>292</v>
+      </c>
+      <c r="J165" t="s">
+        <v>293</v>
+      </c>
+      <c r="K165" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
+        <v>340</v>
+      </c>
+      <c r="D166" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I166)), ISNUMBER(SEARCH("first costs", $I166))), ISNUMBER(SEARCH("maximum damage", $I166))=FALSE), Cost_Database_Original!D165*0.6, Cost_Database_Original!D165)</f>
+        <v>88931399.999999985</v>
+      </c>
+      <c r="E166" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I166)), ISNUMBER(SEARCH("first costs", $I166))), ISNUMBER(SEARCH("maximum damage", $I166))=FALSE), Cost_Database_Original!E165*0.6, Cost_Database_Original!E165)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F166" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I166)), ISNUMBER(SEARCH("first costs", $I166))), ISNUMBER(SEARCH("maximum damage", $I166))=FALSE), Cost_Database_Original!F165*0.6, Cost_Database_Original!F165)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G166" t="s">
+        <v>14</v>
+      </c>
+      <c r="H166" t="s">
+        <v>295</v>
+      </c>
+      <c r="I166" t="s">
+        <v>292</v>
+      </c>
+      <c r="J166" t="s">
+        <v>293</v>
+      </c>
+      <c r="K166" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>341</v>
+      </c>
+      <c r="D167" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I167)), ISNUMBER(SEARCH("first costs", $I167))), ISNUMBER(SEARCH("maximum damage", $I167))=FALSE), Cost_Database_Original!D166*0.6, Cost_Database_Original!D166)</f>
+        <v>363112799.99999994</v>
+      </c>
+      <c r="E167" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I167)), ISNUMBER(SEARCH("first costs", $I167))), ISNUMBER(SEARCH("maximum damage", $I167))=FALSE), Cost_Database_Original!E166*0.6, Cost_Database_Original!E166)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F167" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I167)), ISNUMBER(SEARCH("first costs", $I167))), ISNUMBER(SEARCH("maximum damage", $I167))=FALSE), Cost_Database_Original!F166*0.6, Cost_Database_Original!F166)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G167" t="s">
+        <v>14</v>
+      </c>
+      <c r="H167" t="s">
+        <v>295</v>
+      </c>
+      <c r="I167" t="s">
+        <v>292</v>
+      </c>
+      <c r="J167" t="s">
+        <v>293</v>
+      </c>
+      <c r="K167" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>342</v>
+      </c>
+      <c r="D168" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I168)), ISNUMBER(SEARCH("first costs", $I168))), ISNUMBER(SEARCH("maximum damage", $I168))=FALSE), Cost_Database_Original!D167*0.6, Cost_Database_Original!D167)</f>
+        <v>260170799.99999997</v>
+      </c>
+      <c r="E168" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I168)), ISNUMBER(SEARCH("first costs", $I168))), ISNUMBER(SEARCH("maximum damage", $I168))=FALSE), Cost_Database_Original!E167*0.6, Cost_Database_Original!E167)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F168" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I168)), ISNUMBER(SEARCH("first costs", $I168))), ISNUMBER(SEARCH("maximum damage", $I168))=FALSE), Cost_Database_Original!F167*0.6, Cost_Database_Original!F167)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G168" t="s">
+        <v>14</v>
+      </c>
+      <c r="H168" t="s">
+        <v>295</v>
+      </c>
+      <c r="I168" t="s">
+        <v>292</v>
+      </c>
+      <c r="J168" t="s">
+        <v>293</v>
+      </c>
+      <c r="K168" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" t="s">
+        <v>343</v>
+      </c>
+      <c r="D169" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I169)), ISNUMBER(SEARCH("first costs", $I169))), ISNUMBER(SEARCH("maximum damage", $I169))=FALSE), Cost_Database_Original!D168*0.6, Cost_Database_Original!D168)</f>
+        <v>411927599.99999994</v>
+      </c>
+      <c r="E169" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I169)), ISNUMBER(SEARCH("first costs", $I169))), ISNUMBER(SEARCH("maximum damage", $I169))=FALSE), Cost_Database_Original!E168*0.6, Cost_Database_Original!E168)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F169" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I169)), ISNUMBER(SEARCH("first costs", $I169))), ISNUMBER(SEARCH("maximum damage", $I169))=FALSE), Cost_Database_Original!F168*0.6, Cost_Database_Original!F168)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G169" t="s">
+        <v>14</v>
+      </c>
+      <c r="H169" t="s">
+        <v>295</v>
+      </c>
+      <c r="I169" t="s">
+        <v>292</v>
+      </c>
+      <c r="J169" t="s">
+        <v>293</v>
+      </c>
+      <c r="K169" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>344</v>
+      </c>
+      <c r="D170" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I170)), ISNUMBER(SEARCH("first costs", $I170))), ISNUMBER(SEARCH("maximum damage", $I170))=FALSE), Cost_Database_Original!D169*0.6, Cost_Database_Original!D169)</f>
+        <v>1133707200</v>
+      </c>
+      <c r="E170" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I170)), ISNUMBER(SEARCH("first costs", $I170))), ISNUMBER(SEARCH("maximum damage", $I170))=FALSE), Cost_Database_Original!E169*0.6, Cost_Database_Original!E169)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F170" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I170)), ISNUMBER(SEARCH("first costs", $I170))), ISNUMBER(SEARCH("maximum damage", $I170))=FALSE), Cost_Database_Original!F169*0.6, Cost_Database_Original!F169)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G170" t="s">
+        <v>14</v>
+      </c>
+      <c r="H170" t="s">
+        <v>295</v>
+      </c>
+      <c r="I170" t="s">
+        <v>292</v>
+      </c>
+      <c r="J170" t="s">
+        <v>293</v>
+      </c>
+      <c r="K170" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>345</v>
+      </c>
+      <c r="D171" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I171)), ISNUMBER(SEARCH("first costs", $I171))), ISNUMBER(SEARCH("maximum damage", $I171))=FALSE), Cost_Database_Original!D170*0.6, Cost_Database_Original!D170)</f>
+        <v>65036999.999999993</v>
+      </c>
+      <c r="E171" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I171)), ISNUMBER(SEARCH("first costs", $I171))), ISNUMBER(SEARCH("maximum damage", $I171))=FALSE), Cost_Database_Original!E170*0.6, Cost_Database_Original!E170)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F171" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I171)), ISNUMBER(SEARCH("first costs", $I171))), ISNUMBER(SEARCH("maximum damage", $I171))=FALSE), Cost_Database_Original!F170*0.6, Cost_Database_Original!F170)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G171" t="s">
+        <v>14</v>
+      </c>
+      <c r="H171" t="s">
+        <v>295</v>
+      </c>
+      <c r="I171" t="s">
+        <v>292</v>
+      </c>
+      <c r="J171" t="s">
+        <v>293</v>
+      </c>
+      <c r="K171" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" t="s">
+        <v>345</v>
+      </c>
+      <c r="D172" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I172)), ISNUMBER(SEARCH("first costs", $I172))), ISNUMBER(SEARCH("maximum damage", $I172))=FALSE), Cost_Database_Original!D171*0.6, Cost_Database_Original!D171)</f>
+        <v>65036999.999999993</v>
+      </c>
+      <c r="E172" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I172)), ISNUMBER(SEARCH("first costs", $I172))), ISNUMBER(SEARCH("maximum damage", $I172))=FALSE), Cost_Database_Original!E171*0.6, Cost_Database_Original!E171)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F172" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I172)), ISNUMBER(SEARCH("first costs", $I172))), ISNUMBER(SEARCH("maximum damage", $I172))=FALSE), Cost_Database_Original!F171*0.6, Cost_Database_Original!F171)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G172" t="s">
+        <v>14</v>
+      </c>
+      <c r="H172" t="s">
+        <v>295</v>
+      </c>
+      <c r="I172" t="s">
+        <v>292</v>
+      </c>
+      <c r="J172" t="s">
+        <v>293</v>
+      </c>
+      <c r="K172" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>346</v>
+      </c>
+      <c r="D173" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I173)), ISNUMBER(SEARCH("first costs", $I173))), ISNUMBER(SEARCH("maximum damage", $I173))=FALSE), Cost_Database_Original!D172*0.6, Cost_Database_Original!D172)</f>
+        <v>121409999.99999999</v>
+      </c>
+      <c r="E173" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I173)), ISNUMBER(SEARCH("first costs", $I173))), ISNUMBER(SEARCH("maximum damage", $I173))=FALSE), Cost_Database_Original!E172*0.6, Cost_Database_Original!E172)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F173" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I173)), ISNUMBER(SEARCH("first costs", $I173))), ISNUMBER(SEARCH("maximum damage", $I173))=FALSE), Cost_Database_Original!F172*0.6, Cost_Database_Original!F172)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G173" t="s">
+        <v>14</v>
+      </c>
+      <c r="H173" t="s">
+        <v>295</v>
+      </c>
+      <c r="I173" t="s">
+        <v>292</v>
+      </c>
+      <c r="J173" t="s">
+        <v>293</v>
+      </c>
+      <c r="K173" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" t="s">
+        <v>347</v>
+      </c>
+      <c r="D174" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I174)), ISNUMBER(SEARCH("first costs", $I174))), ISNUMBER(SEARCH("maximum damage", $I174))=FALSE), Cost_Database_Original!D173*0.6, Cost_Database_Original!D173)</f>
+        <v>256066799.99999997</v>
+      </c>
+      <c r="E174" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I174)), ISNUMBER(SEARCH("first costs", $I174))), ISNUMBER(SEARCH("maximum damage", $I174))=FALSE), Cost_Database_Original!E173*0.6, Cost_Database_Original!E173)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F174" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I174)), ISNUMBER(SEARCH("first costs", $I174))), ISNUMBER(SEARCH("maximum damage", $I174))=FALSE), Cost_Database_Original!F173*0.6, Cost_Database_Original!F173)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G174" t="s">
+        <v>14</v>
+      </c>
+      <c r="H174" t="s">
+        <v>295</v>
+      </c>
+      <c r="I174" t="s">
+        <v>292</v>
+      </c>
+      <c r="J174" t="s">
+        <v>293</v>
+      </c>
+      <c r="K174" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
+        <v>348</v>
+      </c>
+      <c r="D175" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I175)), ISNUMBER(SEARCH("first costs", $I175))), ISNUMBER(SEARCH("maximum damage", $I175))=FALSE), Cost_Database_Original!D174*0.6, Cost_Database_Original!D174)</f>
+        <v>3397199.9999999995</v>
+      </c>
+      <c r="E175" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I175)), ISNUMBER(SEARCH("first costs", $I175))), ISNUMBER(SEARCH("maximum damage", $I175))=FALSE), Cost_Database_Original!E174*0.6, Cost_Database_Original!E174)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F175" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I175)), ISNUMBER(SEARCH("first costs", $I175))), ISNUMBER(SEARCH("maximum damage", $I175))=FALSE), Cost_Database_Original!F174*0.6, Cost_Database_Original!F174)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H175" t="s">
+        <v>295</v>
+      </c>
+      <c r="I175" t="s">
+        <v>292</v>
+      </c>
+      <c r="J175" t="s">
+        <v>293</v>
+      </c>
+      <c r="K175" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>349</v>
+      </c>
+      <c r="D176" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I176)), ISNUMBER(SEARCH("first costs", $I176))), ISNUMBER(SEARCH("maximum damage", $I176))=FALSE), Cost_Database_Original!D175*0.6, Cost_Database_Original!D175)</f>
+        <v>107957999.99999999</v>
+      </c>
+      <c r="E176" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I176)), ISNUMBER(SEARCH("first costs", $I176))), ISNUMBER(SEARCH("maximum damage", $I176))=FALSE), Cost_Database_Original!E175*0.6, Cost_Database_Original!E175)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F176" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I176)), ISNUMBER(SEARCH("first costs", $I176))), ISNUMBER(SEARCH("maximum damage", $I176))=FALSE), Cost_Database_Original!F175*0.6, Cost_Database_Original!F175)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G176" t="s">
+        <v>14</v>
+      </c>
+      <c r="H176" t="s">
+        <v>295</v>
+      </c>
+      <c r="I176" t="s">
+        <v>292</v>
+      </c>
+      <c r="J176" t="s">
+        <v>293</v>
+      </c>
+      <c r="K176" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" t="s">
+        <v>350</v>
+      </c>
+      <c r="D177" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I177)), ISNUMBER(SEARCH("first costs", $I177))), ISNUMBER(SEARCH("maximum damage", $I177))=FALSE), Cost_Database_Original!D176*0.6, Cost_Database_Original!D176)</f>
+        <v>138760800</v>
+      </c>
+      <c r="E177" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I177)), ISNUMBER(SEARCH("first costs", $I177))), ISNUMBER(SEARCH("maximum damage", $I177))=FALSE), Cost_Database_Original!E176*0.6, Cost_Database_Original!E176)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F177" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I177)), ISNUMBER(SEARCH("first costs", $I177))), ISNUMBER(SEARCH("maximum damage", $I177))=FALSE), Cost_Database_Original!F176*0.6, Cost_Database_Original!F176)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G177" t="s">
+        <v>14</v>
+      </c>
+      <c r="H177" t="s">
+        <v>295</v>
+      </c>
+      <c r="I177" t="s">
+        <v>292</v>
+      </c>
+      <c r="J177" t="s">
+        <v>293</v>
+      </c>
+      <c r="K177" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>351</v>
+      </c>
+      <c r="D178" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I178)), ISNUMBER(SEARCH("first costs", $I178))), ISNUMBER(SEARCH("maximum damage", $I178))=FALSE), Cost_Database_Original!D177*0.6, Cost_Database_Original!D177)</f>
+        <v>370705199.99999994</v>
+      </c>
+      <c r="E178" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I178)), ISNUMBER(SEARCH("first costs", $I178))), ISNUMBER(SEARCH("maximum damage", $I178))=FALSE), Cost_Database_Original!E177*0.6, Cost_Database_Original!E177)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F178" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I178)), ISNUMBER(SEARCH("first costs", $I178))), ISNUMBER(SEARCH("maximum damage", $I178))=FALSE), Cost_Database_Original!F177*0.6, Cost_Database_Original!F177)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G178" t="s">
+        <v>14</v>
+      </c>
+      <c r="H178" t="s">
+        <v>295</v>
+      </c>
+      <c r="I178" t="s">
+        <v>292</v>
+      </c>
+      <c r="J178" t="s">
+        <v>293</v>
+      </c>
+      <c r="K178" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>352</v>
+      </c>
+      <c r="D179" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I179)), ISNUMBER(SEARCH("first costs", $I179))), ISNUMBER(SEARCH("maximum damage", $I179))=FALSE), Cost_Database_Original!D178*0.6, Cost_Database_Original!D178)</f>
+        <v>136651800</v>
+      </c>
+      <c r="E179" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I179)), ISNUMBER(SEARCH("first costs", $I179))), ISNUMBER(SEARCH("maximum damage", $I179))=FALSE), Cost_Database_Original!E178*0.6, Cost_Database_Original!E178)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F179" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I179)), ISNUMBER(SEARCH("first costs", $I179))), ISNUMBER(SEARCH("maximum damage", $I179))=FALSE), Cost_Database_Original!F178*0.6, Cost_Database_Original!F178)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G179" t="s">
+        <v>14</v>
+      </c>
+      <c r="H179" t="s">
+        <v>295</v>
+      </c>
+      <c r="I179" t="s">
+        <v>292</v>
+      </c>
+      <c r="J179" t="s">
+        <v>293</v>
+      </c>
+      <c r="K179" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>353</v>
+      </c>
+      <c r="D180" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I180)), ISNUMBER(SEARCH("first costs", $I180))), ISNUMBER(SEARCH("maximum damage", $I180))=FALSE), Cost_Database_Original!D179*0.6, Cost_Database_Original!D179)</f>
+        <v>398053799.99999994</v>
+      </c>
+      <c r="E180" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I180)), ISNUMBER(SEARCH("first costs", $I180))), ISNUMBER(SEARCH("maximum damage", $I180))=FALSE), Cost_Database_Original!E179*0.6, Cost_Database_Original!E179)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F180" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I180)), ISNUMBER(SEARCH("first costs", $I180))), ISNUMBER(SEARCH("maximum damage", $I180))=FALSE), Cost_Database_Original!F179*0.6, Cost_Database_Original!F179)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G180" t="s">
+        <v>14</v>
+      </c>
+      <c r="H180" t="s">
+        <v>295</v>
+      </c>
+      <c r="I180" t="s">
+        <v>292</v>
+      </c>
+      <c r="J180" t="s">
+        <v>293</v>
+      </c>
+      <c r="K180" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" t="s">
+        <v>354</v>
+      </c>
+      <c r="D181" s="4">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I181)), ISNUMBER(SEARCH("first costs", $I181))), ISNUMBER(SEARCH("maximum damage", $I181))=FALSE), Cost_Database_Original!D180*0.6, Cost_Database_Original!D180)</f>
+        <v>361835999.99999994</v>
+      </c>
+      <c r="E181" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I181)), ISNUMBER(SEARCH("first costs", $I181))), ISNUMBER(SEARCH("maximum damage", $I181))=FALSE), Cost_Database_Original!E180*0.6, Cost_Database_Original!E180)</f>
+        <v>N/A</v>
+      </c>
+      <c r="F181" s="4" t="str">
+        <f>IF(AND(OR(ISNUMBER(SEARCH("construction costs", $I181)), ISNUMBER(SEARCH("first costs", $I181))), ISNUMBER(SEARCH("maximum damage", $I181))=FALSE), Cost_Database_Original!F180*0.6, Cost_Database_Original!F180)</f>
+        <v>N/A</v>
+      </c>
+      <c r="G181" t="s">
+        <v>14</v>
+      </c>
+      <c r="H181" t="s">
+        <v>295</v>
+      </c>
+      <c r="I181" t="s">
+        <v>292</v>
+      </c>
+      <c r="J181" t="s">
+        <v>293</v>
+      </c>
+      <c r="K181" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:L2" xr:uid="{EEF54DA9-9DBA-41E5-8892-C2F99E6F867D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K181">
+      <sortCondition ref="B2"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0D56CC-F8C0-4BB6-A41F-D5D23887D45E}">
   <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D87" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E93" sqref="E93"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3061,7 +9937,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="4">
-        <v>98.968068154203777</v>
+        <v>98.968068154203806</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -9305,7 +16181,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30180144-1277-4BE9-9CB5-CB175B5911C7}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD1F207-1001-4535-8B2A-015ABE0D2BDE}">
   <dimension ref="A1:A23"/>
   <sheetViews>
